--- a/Documents/SWP391-AppDevProject_Backlog.xlsx
+++ b/Documents/SWP391-AppDevProject_Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="95">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC</t>
   </si>
@@ -294,6 +294,15 @@
   <si>
     <t>Admin page</t>
   </si>
+  <si>
+    <t>System notifies</t>
+  </si>
+  <si>
+    <t>System handler</t>
+  </si>
+  <si>
+    <t>System send mail</t>
+  </si>
 </sst>
 </file>
 
@@ -425,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -507,10 +516,6 @@
     <xf borderId="1" fillId="2" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3260,13 +3265,27 @@
       <c r="AA60" s="3"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="13"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
+      <c r="A61" s="13">
+        <v>53.0</v>
+      </c>
+      <c r="B61" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="H61" s="28"/>
       <c r="I61" s="2"/>
       <c r="J61" s="3"/>
@@ -3289,13 +3308,27 @@
       <c r="AA61" s="3"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="13"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
+      <c r="A62" s="13">
+        <v>54.0</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="H62" s="28"/>
       <c r="I62" s="2"/>
       <c r="J62" s="3"/>
@@ -3347,7 +3380,7 @@
       <c r="AA63" s="3"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="31"/>
+      <c r="A64" s="29"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -3376,7 +3409,7 @@
       <c r="AA64" s="3"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="31"/>
+      <c r="A65" s="29"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -3405,7 +3438,7 @@
       <c r="AA65" s="3"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="31"/>
+      <c r="A66" s="29"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -3434,7 +3467,7 @@
       <c r="AA66" s="3"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="31"/>
+      <c r="A67" s="29"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -3463,7 +3496,7 @@
       <c r="AA67" s="3"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="31"/>
+      <c r="A68" s="29"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -3492,7 +3525,7 @@
       <c r="AA68" s="3"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="31"/>
+      <c r="A69" s="29"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -3521,7 +3554,7 @@
       <c r="AA69" s="3"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="31"/>
+      <c r="A70" s="29"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -3550,7 +3583,7 @@
       <c r="AA70" s="3"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="31"/>
+      <c r="A71" s="29"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -3579,7 +3612,7 @@
       <c r="AA71" s="3"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="31"/>
+      <c r="A72" s="29"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -3608,7 +3641,7 @@
       <c r="AA72" s="3"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="31"/>
+      <c r="A73" s="29"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -3637,7 +3670,7 @@
       <c r="AA73" s="3"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="31"/>
+      <c r="A74" s="29"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -3666,7 +3699,7 @@
       <c r="AA74" s="3"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="31"/>
+      <c r="A75" s="29"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -3695,7 +3728,7 @@
       <c r="AA75" s="3"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="31"/>
+      <c r="A76" s="29"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -3724,7 +3757,7 @@
       <c r="AA76" s="3"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="31"/>
+      <c r="A77" s="29"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -3753,7 +3786,7 @@
       <c r="AA77" s="3"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="31"/>
+      <c r="A78" s="29"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -3782,7 +3815,7 @@
       <c r="AA78" s="3"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="31"/>
+      <c r="A79" s="29"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -3811,7 +3844,7 @@
       <c r="AA79" s="3"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="31"/>
+      <c r="A80" s="29"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -3840,7 +3873,7 @@
       <c r="AA80" s="3"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="31"/>
+      <c r="A81" s="29"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -3869,7 +3902,7 @@
       <c r="AA81" s="3"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="31"/>
+      <c r="A82" s="29"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -3898,7 +3931,7 @@
       <c r="AA82" s="3"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="31"/>
+      <c r="A83" s="29"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -3927,7 +3960,7 @@
       <c r="AA83" s="3"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="31"/>
+      <c r="A84" s="29"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -3956,7 +3989,7 @@
       <c r="AA84" s="3"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="31"/>
+      <c r="A85" s="29"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -3985,7 +4018,7 @@
       <c r="AA85" s="3"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="31"/>
+      <c r="A86" s="29"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -4014,7 +4047,7 @@
       <c r="AA86" s="3"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="31"/>
+      <c r="A87" s="29"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -4043,7 +4076,7 @@
       <c r="AA87" s="3"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="31"/>
+      <c r="A88" s="29"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -4072,7 +4105,7 @@
       <c r="AA88" s="3"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="31"/>
+      <c r="A89" s="29"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -4101,7 +4134,7 @@
       <c r="AA89" s="3"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="31"/>
+      <c r="A90" s="29"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -4130,7 +4163,7 @@
       <c r="AA90" s="3"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="31"/>
+      <c r="A91" s="29"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -4159,7 +4192,7 @@
       <c r="AA91" s="3"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="31"/>
+      <c r="A92" s="29"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -4188,7 +4221,7 @@
       <c r="AA92" s="3"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="31"/>
+      <c r="A93" s="29"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -4217,7 +4250,7 @@
       <c r="AA93" s="3"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="31"/>
+      <c r="A94" s="29"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -4246,7 +4279,7 @@
       <c r="AA94" s="3"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="31"/>
+      <c r="A95" s="29"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -4275,7 +4308,7 @@
       <c r="AA95" s="3"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="31"/>
+      <c r="A96" s="29"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -4304,7 +4337,7 @@
       <c r="AA96" s="3"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="31"/>
+      <c r="A97" s="29"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -4333,7 +4366,7 @@
       <c r="AA97" s="3"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="31"/>
+      <c r="A98" s="29"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -4362,7 +4395,7 @@
       <c r="AA98" s="3"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="31"/>
+      <c r="A99" s="29"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -4391,7 +4424,7 @@
       <c r="AA99" s="3"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="31"/>
+      <c r="A100" s="29"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -4420,7 +4453,7 @@
       <c r="AA100" s="3"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="31"/>
+      <c r="A101" s="29"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -4449,7 +4482,7 @@
       <c r="AA101" s="3"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="31"/>
+      <c r="A102" s="29"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -4478,7 +4511,7 @@
       <c r="AA102" s="3"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="31"/>
+      <c r="A103" s="29"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -4507,7 +4540,7 @@
       <c r="AA103" s="3"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="31"/>
+      <c r="A104" s="29"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -4536,7 +4569,7 @@
       <c r="AA104" s="3"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="31"/>
+      <c r="A105" s="29"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -4565,7 +4598,7 @@
       <c r="AA105" s="3"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="31"/>
+      <c r="A106" s="29"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -4594,7 +4627,7 @@
       <c r="AA106" s="3"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="31"/>
+      <c r="A107" s="29"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -4623,7 +4656,7 @@
       <c r="AA107" s="3"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="31"/>
+      <c r="A108" s="29"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -4652,7 +4685,7 @@
       <c r="AA108" s="3"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="31"/>
+      <c r="A109" s="29"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -4681,7 +4714,7 @@
       <c r="AA109" s="3"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="31"/>
+      <c r="A110" s="29"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -4710,7 +4743,7 @@
       <c r="AA110" s="3"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="31"/>
+      <c r="A111" s="29"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -4739,7 +4772,7 @@
       <c r="AA111" s="3"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="31"/>
+      <c r="A112" s="29"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -4768,7 +4801,7 @@
       <c r="AA112" s="3"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="31"/>
+      <c r="A113" s="29"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -4797,7 +4830,7 @@
       <c r="AA113" s="3"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="31"/>
+      <c r="A114" s="29"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -4826,7 +4859,7 @@
       <c r="AA114" s="3"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="31"/>
+      <c r="A115" s="29"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -4855,7 +4888,7 @@
       <c r="AA115" s="3"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="31"/>
+      <c r="A116" s="29"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -4884,7 +4917,7 @@
       <c r="AA116" s="3"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="31"/>
+      <c r="A117" s="29"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -4913,7 +4946,7 @@
       <c r="AA117" s="3"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="31"/>
+      <c r="A118" s="29"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -4942,7 +4975,7 @@
       <c r="AA118" s="3"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="31"/>
+      <c r="A119" s="29"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -4971,7 +5004,7 @@
       <c r="AA119" s="3"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="31"/>
+      <c r="A120" s="29"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -5000,7 +5033,7 @@
       <c r="AA120" s="3"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="31"/>
+      <c r="A121" s="29"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -5029,7 +5062,7 @@
       <c r="AA121" s="3"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="31"/>
+      <c r="A122" s="29"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -5058,7 +5091,7 @@
       <c r="AA122" s="3"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="31"/>
+      <c r="A123" s="29"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -5087,7 +5120,7 @@
       <c r="AA123" s="3"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="31"/>
+      <c r="A124" s="29"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -5116,7 +5149,7 @@
       <c r="AA124" s="3"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="31"/>
+      <c r="A125" s="29"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -5145,7 +5178,7 @@
       <c r="AA125" s="3"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="31"/>
+      <c r="A126" s="29"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -5174,7 +5207,7 @@
       <c r="AA126" s="3"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="31"/>
+      <c r="A127" s="29"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -5203,7 +5236,7 @@
       <c r="AA127" s="3"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="31"/>
+      <c r="A128" s="29"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
@@ -5232,7 +5265,7 @@
       <c r="AA128" s="3"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="31"/>
+      <c r="A129" s="29"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
@@ -5261,7 +5294,7 @@
       <c r="AA129" s="3"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="31"/>
+      <c r="A130" s="29"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
@@ -5290,7 +5323,7 @@
       <c r="AA130" s="3"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="31"/>
+      <c r="A131" s="29"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -5319,7 +5352,7 @@
       <c r="AA131" s="3"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="31"/>
+      <c r="A132" s="29"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -5348,7 +5381,7 @@
       <c r="AA132" s="3"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="31"/>
+      <c r="A133" s="29"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -5377,7 +5410,7 @@
       <c r="AA133" s="3"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="31"/>
+      <c r="A134" s="29"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -5406,7 +5439,7 @@
       <c r="AA134" s="3"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="31"/>
+      <c r="A135" s="29"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -5435,7 +5468,7 @@
       <c r="AA135" s="3"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="31"/>
+      <c r="A136" s="29"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -5464,7 +5497,7 @@
       <c r="AA136" s="3"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="31"/>
+      <c r="A137" s="29"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -5493,7 +5526,7 @@
       <c r="AA137" s="3"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="31"/>
+      <c r="A138" s="29"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -5522,7 +5555,7 @@
       <c r="AA138" s="3"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="31"/>
+      <c r="A139" s="29"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -5551,7 +5584,7 @@
       <c r="AA139" s="3"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="31"/>
+      <c r="A140" s="29"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -5580,7 +5613,7 @@
       <c r="AA140" s="3"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="31"/>
+      <c r="A141" s="29"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -5609,7 +5642,7 @@
       <c r="AA141" s="3"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="31"/>
+      <c r="A142" s="29"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -5638,7 +5671,7 @@
       <c r="AA142" s="3"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="31"/>
+      <c r="A143" s="29"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
@@ -5667,7 +5700,7 @@
       <c r="AA143" s="3"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="31"/>
+      <c r="A144" s="29"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
@@ -5696,7 +5729,7 @@
       <c r="AA144" s="3"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="31"/>
+      <c r="A145" s="29"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -5725,7 +5758,7 @@
       <c r="AA145" s="3"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="31"/>
+      <c r="A146" s="29"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -5754,7 +5787,7 @@
       <c r="AA146" s="3"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="31"/>
+      <c r="A147" s="29"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -5783,7 +5816,7 @@
       <c r="AA147" s="3"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="31"/>
+      <c r="A148" s="29"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -5812,7 +5845,7 @@
       <c r="AA148" s="3"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="31"/>
+      <c r="A149" s="29"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -5841,7 +5874,7 @@
       <c r="AA149" s="3"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="31"/>
+      <c r="A150" s="29"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -5870,7 +5903,7 @@
       <c r="AA150" s="3"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="31"/>
+      <c r="A151" s="29"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -5899,7 +5932,7 @@
       <c r="AA151" s="3"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="31"/>
+      <c r="A152" s="29"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
@@ -5928,7 +5961,7 @@
       <c r="AA152" s="3"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="31"/>
+      <c r="A153" s="29"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
@@ -5957,7 +5990,7 @@
       <c r="AA153" s="3"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="31"/>
+      <c r="A154" s="29"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
@@ -5986,7 +6019,7 @@
       <c r="AA154" s="3"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="31"/>
+      <c r="A155" s="29"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
@@ -6015,7 +6048,7 @@
       <c r="AA155" s="3"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="31"/>
+      <c r="A156" s="29"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
@@ -6044,7 +6077,7 @@
       <c r="AA156" s="3"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="31"/>
+      <c r="A157" s="29"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -6073,7 +6106,7 @@
       <c r="AA157" s="3"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="31"/>
+      <c r="A158" s="29"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
@@ -6102,7 +6135,7 @@
       <c r="AA158" s="3"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="31"/>
+      <c r="A159" s="29"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
@@ -6131,7 +6164,7 @@
       <c r="AA159" s="3"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="31"/>
+      <c r="A160" s="29"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -6160,7 +6193,7 @@
       <c r="AA160" s="3"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="31"/>
+      <c r="A161" s="29"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
@@ -6189,7 +6222,7 @@
       <c r="AA161" s="3"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="31"/>
+      <c r="A162" s="29"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
@@ -6218,7 +6251,7 @@
       <c r="AA162" s="3"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="31"/>
+      <c r="A163" s="29"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
@@ -6247,7 +6280,7 @@
       <c r="AA163" s="3"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="31"/>
+      <c r="A164" s="29"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
@@ -6276,7 +6309,7 @@
       <c r="AA164" s="3"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="31"/>
+      <c r="A165" s="29"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -6305,7 +6338,7 @@
       <c r="AA165" s="3"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="31"/>
+      <c r="A166" s="29"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -6334,7 +6367,7 @@
       <c r="AA166" s="3"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="31"/>
+      <c r="A167" s="29"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -6363,7 +6396,7 @@
       <c r="AA167" s="3"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="31"/>
+      <c r="A168" s="29"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -6392,7 +6425,7 @@
       <c r="AA168" s="3"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="31"/>
+      <c r="A169" s="29"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -6421,7 +6454,7 @@
       <c r="AA169" s="3"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="31"/>
+      <c r="A170" s="29"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
@@ -6450,7 +6483,7 @@
       <c r="AA170" s="3"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="31"/>
+      <c r="A171" s="29"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
@@ -6479,7 +6512,7 @@
       <c r="AA171" s="3"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="31"/>
+      <c r="A172" s="29"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -6508,7 +6541,7 @@
       <c r="AA172" s="3"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="31"/>
+      <c r="A173" s="29"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -6537,7 +6570,7 @@
       <c r="AA173" s="3"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="31"/>
+      <c r="A174" s="29"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -6566,7 +6599,7 @@
       <c r="AA174" s="3"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="31"/>
+      <c r="A175" s="29"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -6595,7 +6628,7 @@
       <c r="AA175" s="3"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="31"/>
+      <c r="A176" s="29"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
@@ -6624,7 +6657,7 @@
       <c r="AA176" s="3"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="31"/>
+      <c r="A177" s="29"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -6653,7 +6686,7 @@
       <c r="AA177" s="3"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="31"/>
+      <c r="A178" s="29"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
@@ -6682,7 +6715,7 @@
       <c r="AA178" s="3"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="31"/>
+      <c r="A179" s="29"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
@@ -6711,7 +6744,7 @@
       <c r="AA179" s="3"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="31"/>
+      <c r="A180" s="29"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
@@ -6740,7 +6773,7 @@
       <c r="AA180" s="3"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="31"/>
+      <c r="A181" s="29"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
@@ -6769,7 +6802,7 @@
       <c r="AA181" s="3"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="31"/>
+      <c r="A182" s="29"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
@@ -6798,7 +6831,7 @@
       <c r="AA182" s="3"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="31"/>
+      <c r="A183" s="29"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
@@ -6827,7 +6860,7 @@
       <c r="AA183" s="3"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="31"/>
+      <c r="A184" s="29"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
@@ -6856,7 +6889,7 @@
       <c r="AA184" s="3"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="31"/>
+      <c r="A185" s="29"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -6885,7 +6918,7 @@
       <c r="AA185" s="3"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="31"/>
+      <c r="A186" s="29"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
@@ -6914,7 +6947,7 @@
       <c r="AA186" s="3"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="31"/>
+      <c r="A187" s="29"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
@@ -6943,7 +6976,7 @@
       <c r="AA187" s="3"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="31"/>
+      <c r="A188" s="29"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
@@ -6972,7 +7005,7 @@
       <c r="AA188" s="3"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="31"/>
+      <c r="A189" s="29"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
@@ -7001,7 +7034,7 @@
       <c r="AA189" s="3"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="31"/>
+      <c r="A190" s="29"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
@@ -7030,7 +7063,7 @@
       <c r="AA190" s="3"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="31"/>
+      <c r="A191" s="29"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
@@ -7059,7 +7092,7 @@
       <c r="AA191" s="3"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="31"/>
+      <c r="A192" s="29"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
@@ -7088,7 +7121,7 @@
       <c r="AA192" s="3"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="31"/>
+      <c r="A193" s="29"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
@@ -7117,7 +7150,7 @@
       <c r="AA193" s="3"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="31"/>
+      <c r="A194" s="29"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
@@ -7146,7 +7179,7 @@
       <c r="AA194" s="3"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="31"/>
+      <c r="A195" s="29"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
@@ -7175,7 +7208,7 @@
       <c r="AA195" s="3"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="31"/>
+      <c r="A196" s="29"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
@@ -7204,7 +7237,7 @@
       <c r="AA196" s="3"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="31"/>
+      <c r="A197" s="29"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
@@ -7233,7 +7266,7 @@
       <c r="AA197" s="3"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="31"/>
+      <c r="A198" s="29"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
@@ -7262,7 +7295,7 @@
       <c r="AA198" s="3"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="31"/>
+      <c r="A199" s="29"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
@@ -7291,7 +7324,7 @@
       <c r="AA199" s="3"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="31"/>
+      <c r="A200" s="29"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
@@ -7320,7 +7353,7 @@
       <c r="AA200" s="3"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="31"/>
+      <c r="A201" s="29"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
@@ -7349,7 +7382,7 @@
       <c r="AA201" s="3"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="31"/>
+      <c r="A202" s="29"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
@@ -7378,7 +7411,7 @@
       <c r="AA202" s="3"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="31"/>
+      <c r="A203" s="29"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
@@ -7407,7 +7440,7 @@
       <c r="AA203" s="3"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="31"/>
+      <c r="A204" s="29"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
@@ -7436,7 +7469,7 @@
       <c r="AA204" s="3"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="31"/>
+      <c r="A205" s="29"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
@@ -7465,7 +7498,7 @@
       <c r="AA205" s="3"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="31"/>
+      <c r="A206" s="29"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
@@ -7494,7 +7527,7 @@
       <c r="AA206" s="3"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="31"/>
+      <c r="A207" s="29"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
@@ -7523,7 +7556,7 @@
       <c r="AA207" s="3"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="31"/>
+      <c r="A208" s="29"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
@@ -7552,7 +7585,7 @@
       <c r="AA208" s="3"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="31"/>
+      <c r="A209" s="29"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
@@ -7581,7 +7614,7 @@
       <c r="AA209" s="3"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="31"/>
+      <c r="A210" s="29"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
@@ -7610,7 +7643,7 @@
       <c r="AA210" s="3"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="31"/>
+      <c r="A211" s="29"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
@@ -7639,7 +7672,7 @@
       <c r="AA211" s="3"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="31"/>
+      <c r="A212" s="29"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
@@ -7668,7 +7701,7 @@
       <c r="AA212" s="3"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="31"/>
+      <c r="A213" s="29"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
@@ -7697,7 +7730,7 @@
       <c r="AA213" s="3"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="31"/>
+      <c r="A214" s="29"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
@@ -7726,7 +7759,7 @@
       <c r="AA214" s="3"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="31"/>
+      <c r="A215" s="29"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
@@ -7755,7 +7788,7 @@
       <c r="AA215" s="3"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="31"/>
+      <c r="A216" s="29"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
@@ -7784,7 +7817,7 @@
       <c r="AA216" s="3"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="31"/>
+      <c r="A217" s="29"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
@@ -7813,7 +7846,7 @@
       <c r="AA217" s="3"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="31"/>
+      <c r="A218" s="29"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
@@ -7842,7 +7875,7 @@
       <c r="AA218" s="3"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="31"/>
+      <c r="A219" s="29"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
@@ -7871,7 +7904,7 @@
       <c r="AA219" s="3"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="31"/>
+      <c r="A220" s="29"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
@@ -7900,7 +7933,7 @@
       <c r="AA220" s="3"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="31"/>
+      <c r="A221" s="29"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
@@ -7929,7 +7962,7 @@
       <c r="AA221" s="3"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="31"/>
+      <c r="A222" s="29"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
@@ -7958,7 +7991,7 @@
       <c r="AA222" s="3"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="31"/>
+      <c r="A223" s="29"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
@@ -7987,7 +8020,7 @@
       <c r="AA223" s="3"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="31"/>
+      <c r="A224" s="29"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
@@ -8016,7 +8049,7 @@
       <c r="AA224" s="3"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="31"/>
+      <c r="A225" s="29"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
@@ -8045,7 +8078,7 @@
       <c r="AA225" s="3"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="31"/>
+      <c r="A226" s="29"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
@@ -8074,7 +8107,7 @@
       <c r="AA226" s="3"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="31"/>
+      <c r="A227" s="29"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
@@ -8103,7 +8136,7 @@
       <c r="AA227" s="3"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="31"/>
+      <c r="A228" s="29"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
@@ -8132,7 +8165,7 @@
       <c r="AA228" s="3"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="31"/>
+      <c r="A229" s="29"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
@@ -8161,7 +8194,7 @@
       <c r="AA229" s="3"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="31"/>
+      <c r="A230" s="29"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
@@ -8190,7 +8223,7 @@
       <c r="AA230" s="3"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="A231" s="31"/>
+      <c r="A231" s="29"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
@@ -8219,7 +8252,7 @@
       <c r="AA231" s="3"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="31"/>
+      <c r="A232" s="29"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
@@ -8248,7 +8281,7 @@
       <c r="AA232" s="3"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="31"/>
+      <c r="A233" s="29"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
@@ -8277,7 +8310,7 @@
       <c r="AA233" s="3"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="31"/>
+      <c r="A234" s="29"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
@@ -8306,7 +8339,7 @@
       <c r="AA234" s="3"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="31"/>
+      <c r="A235" s="29"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
@@ -8335,7 +8368,7 @@
       <c r="AA235" s="3"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="31"/>
+      <c r="A236" s="29"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
@@ -8364,7 +8397,7 @@
       <c r="AA236" s="3"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="31"/>
+      <c r="A237" s="29"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
@@ -8393,7 +8426,7 @@
       <c r="AA237" s="3"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="31"/>
+      <c r="A238" s="29"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
@@ -8422,7 +8455,7 @@
       <c r="AA238" s="3"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="31"/>
+      <c r="A239" s="29"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
@@ -8451,7 +8484,7 @@
       <c r="AA239" s="3"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="31"/>
+      <c r="A240" s="29"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
@@ -8480,7 +8513,7 @@
       <c r="AA240" s="3"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="A241" s="31"/>
+      <c r="A241" s="29"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
@@ -8509,7 +8542,7 @@
       <c r="AA241" s="3"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="31"/>
+      <c r="A242" s="29"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
@@ -8538,7 +8571,7 @@
       <c r="AA242" s="3"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="A243" s="31"/>
+      <c r="A243" s="29"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
@@ -8567,7 +8600,7 @@
       <c r="AA243" s="3"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="A244" s="31"/>
+      <c r="A244" s="29"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
@@ -8596,7 +8629,7 @@
       <c r="AA244" s="3"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="A245" s="31"/>
+      <c r="A245" s="29"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
@@ -8625,7 +8658,7 @@
       <c r="AA245" s="3"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="A246" s="31"/>
+      <c r="A246" s="29"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
@@ -8654,7 +8687,7 @@
       <c r="AA246" s="3"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="31"/>
+      <c r="A247" s="29"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
@@ -8683,7 +8716,7 @@
       <c r="AA247" s="3"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="A248" s="31"/>
+      <c r="A248" s="29"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
@@ -8712,7 +8745,7 @@
       <c r="AA248" s="3"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="A249" s="31"/>
+      <c r="A249" s="29"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
@@ -8741,7 +8774,7 @@
       <c r="AA249" s="3"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="A250" s="31"/>
+      <c r="A250" s="29"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
@@ -8770,7 +8803,7 @@
       <c r="AA250" s="3"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="A251" s="31"/>
+      <c r="A251" s="29"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
@@ -8799,7 +8832,7 @@
       <c r="AA251" s="3"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="A252" s="31"/>
+      <c r="A252" s="29"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
@@ -8828,7 +8861,7 @@
       <c r="AA252" s="3"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="31"/>
+      <c r="A253" s="29"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
@@ -8857,7 +8890,7 @@
       <c r="AA253" s="3"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="31"/>
+      <c r="A254" s="29"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
@@ -8886,7 +8919,7 @@
       <c r="AA254" s="3"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="31"/>
+      <c r="A255" s="29"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
@@ -8915,7 +8948,7 @@
       <c r="AA255" s="3"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="31"/>
+      <c r="A256" s="29"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
@@ -8944,7 +8977,7 @@
       <c r="AA256" s="3"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="A257" s="31"/>
+      <c r="A257" s="29"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
@@ -8973,7 +9006,7 @@
       <c r="AA257" s="3"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="A258" s="31"/>
+      <c r="A258" s="29"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
@@ -9002,7 +9035,7 @@
       <c r="AA258" s="3"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="A259" s="31"/>
+      <c r="A259" s="29"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
@@ -9031,7 +9064,7 @@
       <c r="AA259" s="3"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="A260" s="31"/>
+      <c r="A260" s="29"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
@@ -9060,7 +9093,7 @@
       <c r="AA260" s="3"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="A261" s="31"/>
+      <c r="A261" s="29"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
@@ -9089,7 +9122,7 @@
       <c r="AA261" s="3"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="A262" s="31"/>
+      <c r="A262" s="29"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
@@ -9118,7 +9151,7 @@
       <c r="AA262" s="3"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="A263" s="31"/>
+      <c r="A263" s="29"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
@@ -9147,7 +9180,7 @@
       <c r="AA263" s="3"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="A264" s="31"/>
+      <c r="A264" s="29"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
@@ -9176,7 +9209,7 @@
       <c r="AA264" s="3"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="A265" s="31"/>
+      <c r="A265" s="29"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
@@ -9205,7 +9238,7 @@
       <c r="AA265" s="3"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="A266" s="31"/>
+      <c r="A266" s="29"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
@@ -9234,7 +9267,7 @@
       <c r="AA266" s="3"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="A267" s="31"/>
+      <c r="A267" s="29"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
@@ -9263,7 +9296,7 @@
       <c r="AA267" s="3"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="A268" s="31"/>
+      <c r="A268" s="29"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
@@ -9292,7 +9325,7 @@
       <c r="AA268" s="3"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="A269" s="31"/>
+      <c r="A269" s="29"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
@@ -9321,7 +9354,7 @@
       <c r="AA269" s="3"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="A270" s="31"/>
+      <c r="A270" s="29"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
@@ -9350,7 +9383,7 @@
       <c r="AA270" s="3"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="A271" s="31"/>
+      <c r="A271" s="29"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
@@ -9379,7 +9412,7 @@
       <c r="AA271" s="3"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="A272" s="31"/>
+      <c r="A272" s="29"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
@@ -9408,7 +9441,7 @@
       <c r="AA272" s="3"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="A273" s="31"/>
+      <c r="A273" s="29"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
@@ -9437,7 +9470,7 @@
       <c r="AA273" s="3"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="A274" s="31"/>
+      <c r="A274" s="29"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
@@ -9466,7 +9499,7 @@
       <c r="AA274" s="3"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="A275" s="31"/>
+      <c r="A275" s="29"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
@@ -9495,7 +9528,7 @@
       <c r="AA275" s="3"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="A276" s="31"/>
+      <c r="A276" s="29"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
@@ -9524,7 +9557,7 @@
       <c r="AA276" s="3"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="A277" s="31"/>
+      <c r="A277" s="29"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
@@ -9553,7 +9586,7 @@
       <c r="AA277" s="3"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="A278" s="31"/>
+      <c r="A278" s="29"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
@@ -9582,7 +9615,7 @@
       <c r="AA278" s="3"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="A279" s="31"/>
+      <c r="A279" s="29"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
@@ -9611,7 +9644,7 @@
       <c r="AA279" s="3"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="A280" s="31"/>
+      <c r="A280" s="29"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
@@ -9640,7 +9673,7 @@
       <c r="AA280" s="3"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="A281" s="31"/>
+      <c r="A281" s="29"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
@@ -9669,7 +9702,7 @@
       <c r="AA281" s="3"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="A282" s="31"/>
+      <c r="A282" s="29"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
@@ -9698,7 +9731,7 @@
       <c r="AA282" s="3"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="A283" s="31"/>
+      <c r="A283" s="29"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
@@ -9727,7 +9760,7 @@
       <c r="AA283" s="3"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="A284" s="31"/>
+      <c r="A284" s="29"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
@@ -9756,7 +9789,7 @@
       <c r="AA284" s="3"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="31"/>
+      <c r="A285" s="29"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
@@ -9785,7 +9818,7 @@
       <c r="AA285" s="3"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="A286" s="31"/>
+      <c r="A286" s="29"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
@@ -9814,7 +9847,7 @@
       <c r="AA286" s="3"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="A287" s="31"/>
+      <c r="A287" s="29"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
@@ -9843,7 +9876,7 @@
       <c r="AA287" s="3"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="A288" s="31"/>
+      <c r="A288" s="29"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
@@ -9872,7 +9905,7 @@
       <c r="AA288" s="3"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="A289" s="31"/>
+      <c r="A289" s="29"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
@@ -9901,7 +9934,7 @@
       <c r="AA289" s="3"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="A290" s="31"/>
+      <c r="A290" s="29"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
@@ -9930,7 +9963,7 @@
       <c r="AA290" s="3"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="A291" s="31"/>
+      <c r="A291" s="29"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
@@ -9959,7 +9992,7 @@
       <c r="AA291" s="3"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="A292" s="31"/>
+      <c r="A292" s="29"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
@@ -9988,7 +10021,7 @@
       <c r="AA292" s="3"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="A293" s="31"/>
+      <c r="A293" s="29"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
@@ -10017,7 +10050,7 @@
       <c r="AA293" s="3"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="A294" s="31"/>
+      <c r="A294" s="29"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
@@ -10046,7 +10079,7 @@
       <c r="AA294" s="3"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="A295" s="31"/>
+      <c r="A295" s="29"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
@@ -10075,7 +10108,7 @@
       <c r="AA295" s="3"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="A296" s="31"/>
+      <c r="A296" s="29"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
@@ -10104,7 +10137,7 @@
       <c r="AA296" s="3"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="A297" s="31"/>
+      <c r="A297" s="29"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
@@ -10133,7 +10166,7 @@
       <c r="AA297" s="3"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="A298" s="31"/>
+      <c r="A298" s="29"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
@@ -10162,7 +10195,7 @@
       <c r="AA298" s="3"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="A299" s="31"/>
+      <c r="A299" s="29"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
@@ -10191,7 +10224,7 @@
       <c r="AA299" s="3"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="A300" s="31"/>
+      <c r="A300" s="29"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
@@ -10220,7 +10253,7 @@
       <c r="AA300" s="3"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="A301" s="31"/>
+      <c r="A301" s="29"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
@@ -10249,7 +10282,7 @@
       <c r="AA301" s="3"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="A302" s="31"/>
+      <c r="A302" s="29"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
@@ -10278,7 +10311,7 @@
       <c r="AA302" s="3"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="A303" s="31"/>
+      <c r="A303" s="29"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
@@ -10307,7 +10340,7 @@
       <c r="AA303" s="3"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="A304" s="31"/>
+      <c r="A304" s="29"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
@@ -10336,7 +10369,7 @@
       <c r="AA304" s="3"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="A305" s="31"/>
+      <c r="A305" s="29"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
@@ -10365,7 +10398,7 @@
       <c r="AA305" s="3"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="A306" s="31"/>
+      <c r="A306" s="29"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
@@ -10394,7 +10427,7 @@
       <c r="AA306" s="3"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="A307" s="31"/>
+      <c r="A307" s="29"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
@@ -10423,7 +10456,7 @@
       <c r="AA307" s="3"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="A308" s="31"/>
+      <c r="A308" s="29"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
@@ -10452,7 +10485,7 @@
       <c r="AA308" s="3"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="A309" s="31"/>
+      <c r="A309" s="29"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
@@ -10481,7 +10514,7 @@
       <c r="AA309" s="3"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="A310" s="31"/>
+      <c r="A310" s="29"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
@@ -10510,7 +10543,7 @@
       <c r="AA310" s="3"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="A311" s="31"/>
+      <c r="A311" s="29"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
@@ -10539,7 +10572,7 @@
       <c r="AA311" s="3"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="A312" s="31"/>
+      <c r="A312" s="29"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
@@ -10568,7 +10601,7 @@
       <c r="AA312" s="3"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="A313" s="31"/>
+      <c r="A313" s="29"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
@@ -10597,7 +10630,7 @@
       <c r="AA313" s="3"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="A314" s="31"/>
+      <c r="A314" s="29"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
@@ -10626,7 +10659,7 @@
       <c r="AA314" s="3"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="A315" s="31"/>
+      <c r="A315" s="29"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
@@ -10655,7 +10688,7 @@
       <c r="AA315" s="3"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="A316" s="31"/>
+      <c r="A316" s="29"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
@@ -10684,7 +10717,7 @@
       <c r="AA316" s="3"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="A317" s="31"/>
+      <c r="A317" s="29"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
@@ -10713,7 +10746,7 @@
       <c r="AA317" s="3"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="A318" s="31"/>
+      <c r="A318" s="29"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
@@ -10742,7 +10775,7 @@
       <c r="AA318" s="3"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="A319" s="31"/>
+      <c r="A319" s="29"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
@@ -10771,7 +10804,7 @@
       <c r="AA319" s="3"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="A320" s="31"/>
+      <c r="A320" s="29"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
@@ -10800,7 +10833,7 @@
       <c r="AA320" s="3"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="A321" s="31"/>
+      <c r="A321" s="29"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
@@ -10829,7 +10862,7 @@
       <c r="AA321" s="3"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="A322" s="31"/>
+      <c r="A322" s="29"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
@@ -10858,7 +10891,7 @@
       <c r="AA322" s="3"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="A323" s="31"/>
+      <c r="A323" s="29"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
@@ -10887,7 +10920,7 @@
       <c r="AA323" s="3"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="A324" s="31"/>
+      <c r="A324" s="29"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
@@ -10916,7 +10949,7 @@
       <c r="AA324" s="3"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="A325" s="31"/>
+      <c r="A325" s="29"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
@@ -10945,7 +10978,7 @@
       <c r="AA325" s="3"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="A326" s="31"/>
+      <c r="A326" s="29"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
@@ -10974,7 +11007,7 @@
       <c r="AA326" s="3"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="A327" s="31"/>
+      <c r="A327" s="29"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
@@ -11003,7 +11036,7 @@
       <c r="AA327" s="3"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="A328" s="31"/>
+      <c r="A328" s="29"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
@@ -11032,7 +11065,7 @@
       <c r="AA328" s="3"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="A329" s="31"/>
+      <c r="A329" s="29"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
@@ -11061,7 +11094,7 @@
       <c r="AA329" s="3"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="A330" s="31"/>
+      <c r="A330" s="29"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
@@ -11090,7 +11123,7 @@
       <c r="AA330" s="3"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="A331" s="31"/>
+      <c r="A331" s="29"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
@@ -11119,7 +11152,7 @@
       <c r="AA331" s="3"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="A332" s="31"/>
+      <c r="A332" s="29"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
@@ -11148,7 +11181,7 @@
       <c r="AA332" s="3"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="A333" s="31"/>
+      <c r="A333" s="29"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
@@ -11177,7 +11210,7 @@
       <c r="AA333" s="3"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="A334" s="31"/>
+      <c r="A334" s="29"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
@@ -11206,7 +11239,7 @@
       <c r="AA334" s="3"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="A335" s="31"/>
+      <c r="A335" s="29"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
@@ -11235,7 +11268,7 @@
       <c r="AA335" s="3"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="A336" s="31"/>
+      <c r="A336" s="29"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
@@ -11264,7 +11297,7 @@
       <c r="AA336" s="3"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="A337" s="31"/>
+      <c r="A337" s="29"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
@@ -11293,7 +11326,7 @@
       <c r="AA337" s="3"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="A338" s="31"/>
+      <c r="A338" s="29"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
@@ -11322,7 +11355,7 @@
       <c r="AA338" s="3"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="A339" s="31"/>
+      <c r="A339" s="29"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
@@ -11351,7 +11384,7 @@
       <c r="AA339" s="3"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="A340" s="31"/>
+      <c r="A340" s="29"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
@@ -11380,7 +11413,7 @@
       <c r="AA340" s="3"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="A341" s="31"/>
+      <c r="A341" s="29"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
@@ -11409,7 +11442,7 @@
       <c r="AA341" s="3"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="A342" s="31"/>
+      <c r="A342" s="29"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
@@ -11438,7 +11471,7 @@
       <c r="AA342" s="3"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="A343" s="31"/>
+      <c r="A343" s="29"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
@@ -11467,7 +11500,7 @@
       <c r="AA343" s="3"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="A344" s="31"/>
+      <c r="A344" s="29"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
@@ -11496,7 +11529,7 @@
       <c r="AA344" s="3"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="A345" s="31"/>
+      <c r="A345" s="29"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
@@ -11525,7 +11558,7 @@
       <c r="AA345" s="3"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="A346" s="31"/>
+      <c r="A346" s="29"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
@@ -11554,7 +11587,7 @@
       <c r="AA346" s="3"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="A347" s="31"/>
+      <c r="A347" s="29"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
@@ -11583,7 +11616,7 @@
       <c r="AA347" s="3"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="A348" s="31"/>
+      <c r="A348" s="29"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
@@ -11612,7 +11645,7 @@
       <c r="AA348" s="3"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="A349" s="31"/>
+      <c r="A349" s="29"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
@@ -11641,7 +11674,7 @@
       <c r="AA349" s="3"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="A350" s="31"/>
+      <c r="A350" s="29"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
@@ -11670,7 +11703,7 @@
       <c r="AA350" s="3"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="A351" s="31"/>
+      <c r="A351" s="29"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
@@ -11699,7 +11732,7 @@
       <c r="AA351" s="3"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="A352" s="31"/>
+      <c r="A352" s="29"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
@@ -11728,7 +11761,7 @@
       <c r="AA352" s="3"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="A353" s="31"/>
+      <c r="A353" s="29"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
@@ -11757,7 +11790,7 @@
       <c r="AA353" s="3"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="A354" s="31"/>
+      <c r="A354" s="29"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
@@ -11786,7 +11819,7 @@
       <c r="AA354" s="3"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="A355" s="31"/>
+      <c r="A355" s="29"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
@@ -11815,7 +11848,7 @@
       <c r="AA355" s="3"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="A356" s="31"/>
+      <c r="A356" s="29"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
@@ -11844,7 +11877,7 @@
       <c r="AA356" s="3"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="A357" s="31"/>
+      <c r="A357" s="29"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
@@ -11873,7 +11906,7 @@
       <c r="AA357" s="3"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="A358" s="31"/>
+      <c r="A358" s="29"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
@@ -11902,7 +11935,7 @@
       <c r="AA358" s="3"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="A359" s="31"/>
+      <c r="A359" s="29"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
@@ -11931,7 +11964,7 @@
       <c r="AA359" s="3"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="A360" s="31"/>
+      <c r="A360" s="29"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
@@ -11960,7 +11993,7 @@
       <c r="AA360" s="3"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="A361" s="31"/>
+      <c r="A361" s="29"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
@@ -11989,7 +12022,7 @@
       <c r="AA361" s="3"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="A362" s="31"/>
+      <c r="A362" s="29"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
@@ -12018,7 +12051,7 @@
       <c r="AA362" s="3"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="A363" s="31"/>
+      <c r="A363" s="29"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
@@ -12047,7 +12080,7 @@
       <c r="AA363" s="3"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="A364" s="31"/>
+      <c r="A364" s="29"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
@@ -12076,7 +12109,7 @@
       <c r="AA364" s="3"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="A365" s="31"/>
+      <c r="A365" s="29"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
@@ -12105,7 +12138,7 @@
       <c r="AA365" s="3"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="A366" s="31"/>
+      <c r="A366" s="29"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
@@ -12134,7 +12167,7 @@
       <c r="AA366" s="3"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="A367" s="31"/>
+      <c r="A367" s="29"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
@@ -12163,7 +12196,7 @@
       <c r="AA367" s="3"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="A368" s="31"/>
+      <c r="A368" s="29"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
@@ -12192,7 +12225,7 @@
       <c r="AA368" s="3"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="A369" s="31"/>
+      <c r="A369" s="29"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
@@ -12221,7 +12254,7 @@
       <c r="AA369" s="3"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="A370" s="31"/>
+      <c r="A370" s="29"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
@@ -12250,7 +12283,7 @@
       <c r="AA370" s="3"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="A371" s="31"/>
+      <c r="A371" s="29"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
@@ -12279,7 +12312,7 @@
       <c r="AA371" s="3"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="A372" s="31"/>
+      <c r="A372" s="29"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
@@ -12308,7 +12341,7 @@
       <c r="AA372" s="3"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="A373" s="31"/>
+      <c r="A373" s="29"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
@@ -12337,7 +12370,7 @@
       <c r="AA373" s="3"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="A374" s="31"/>
+      <c r="A374" s="29"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
@@ -12366,7 +12399,7 @@
       <c r="AA374" s="3"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="A375" s="31"/>
+      <c r="A375" s="29"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
@@ -12395,7 +12428,7 @@
       <c r="AA375" s="3"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="A376" s="31"/>
+      <c r="A376" s="29"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
@@ -12424,7 +12457,7 @@
       <c r="AA376" s="3"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="A377" s="31"/>
+      <c r="A377" s="29"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
@@ -12453,7 +12486,7 @@
       <c r="AA377" s="3"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="A378" s="31"/>
+      <c r="A378" s="29"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
@@ -12482,7 +12515,7 @@
       <c r="AA378" s="3"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="A379" s="31"/>
+      <c r="A379" s="29"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
@@ -12511,7 +12544,7 @@
       <c r="AA379" s="3"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="A380" s="31"/>
+      <c r="A380" s="29"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
@@ -12540,7 +12573,7 @@
       <c r="AA380" s="3"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="A381" s="31"/>
+      <c r="A381" s="29"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
@@ -12569,7 +12602,7 @@
       <c r="AA381" s="3"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="A382" s="31"/>
+      <c r="A382" s="29"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
@@ -12598,7 +12631,7 @@
       <c r="AA382" s="3"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="A383" s="31"/>
+      <c r="A383" s="29"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
@@ -12627,7 +12660,7 @@
       <c r="AA383" s="3"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="A384" s="31"/>
+      <c r="A384" s="29"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
@@ -12656,7 +12689,7 @@
       <c r="AA384" s="3"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="A385" s="31"/>
+      <c r="A385" s="29"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
@@ -12685,7 +12718,7 @@
       <c r="AA385" s="3"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="A386" s="31"/>
+      <c r="A386" s="29"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
@@ -12714,7 +12747,7 @@
       <c r="AA386" s="3"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="A387" s="31"/>
+      <c r="A387" s="29"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
@@ -12743,7 +12776,7 @@
       <c r="AA387" s="3"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="A388" s="31"/>
+      <c r="A388" s="29"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
@@ -12772,7 +12805,7 @@
       <c r="AA388" s="3"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="A389" s="31"/>
+      <c r="A389" s="29"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
@@ -12801,7 +12834,7 @@
       <c r="AA389" s="3"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="A390" s="31"/>
+      <c r="A390" s="29"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
@@ -12830,7 +12863,7 @@
       <c r="AA390" s="3"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="A391" s="31"/>
+      <c r="A391" s="29"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
@@ -12859,7 +12892,7 @@
       <c r="AA391" s="3"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="A392" s="31"/>
+      <c r="A392" s="29"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
@@ -12888,7 +12921,7 @@
       <c r="AA392" s="3"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="A393" s="31"/>
+      <c r="A393" s="29"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
@@ -12917,7 +12950,7 @@
       <c r="AA393" s="3"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="A394" s="31"/>
+      <c r="A394" s="29"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
@@ -12946,7 +12979,7 @@
       <c r="AA394" s="3"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="A395" s="31"/>
+      <c r="A395" s="29"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
@@ -12975,7 +13008,7 @@
       <c r="AA395" s="3"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="A396" s="31"/>
+      <c r="A396" s="29"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
@@ -13004,7 +13037,7 @@
       <c r="AA396" s="3"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="A397" s="31"/>
+      <c r="A397" s="29"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
@@ -13033,7 +13066,7 @@
       <c r="AA397" s="3"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="A398" s="31"/>
+      <c r="A398" s="29"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
@@ -13062,7 +13095,7 @@
       <c r="AA398" s="3"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="A399" s="31"/>
+      <c r="A399" s="29"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
@@ -13091,7 +13124,7 @@
       <c r="AA399" s="3"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="A400" s="31"/>
+      <c r="A400" s="29"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
@@ -13120,7 +13153,7 @@
       <c r="AA400" s="3"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="A401" s="31"/>
+      <c r="A401" s="29"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
@@ -13149,7 +13182,7 @@
       <c r="AA401" s="3"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="A402" s="31"/>
+      <c r="A402" s="29"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
@@ -13178,7 +13211,7 @@
       <c r="AA402" s="3"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="A403" s="31"/>
+      <c r="A403" s="29"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
@@ -13207,7 +13240,7 @@
       <c r="AA403" s="3"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="A404" s="31"/>
+      <c r="A404" s="29"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
@@ -13236,7 +13269,7 @@
       <c r="AA404" s="3"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="A405" s="31"/>
+      <c r="A405" s="29"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
@@ -13265,7 +13298,7 @@
       <c r="AA405" s="3"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="A406" s="31"/>
+      <c r="A406" s="29"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
@@ -13294,7 +13327,7 @@
       <c r="AA406" s="3"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="A407" s="31"/>
+      <c r="A407" s="29"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
       <c r="D407" s="3"/>
@@ -13323,7 +13356,7 @@
       <c r="AA407" s="3"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="A408" s="31"/>
+      <c r="A408" s="29"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
@@ -13352,7 +13385,7 @@
       <c r="AA408" s="3"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="A409" s="31"/>
+      <c r="A409" s="29"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
@@ -13381,7 +13414,7 @@
       <c r="AA409" s="3"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="A410" s="31"/>
+      <c r="A410" s="29"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
@@ -13410,7 +13443,7 @@
       <c r="AA410" s="3"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="A411" s="31"/>
+      <c r="A411" s="29"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
@@ -13439,7 +13472,7 @@
       <c r="AA411" s="3"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="A412" s="31"/>
+      <c r="A412" s="29"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
@@ -13468,7 +13501,7 @@
       <c r="AA412" s="3"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="A413" s="31"/>
+      <c r="A413" s="29"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
@@ -13497,7 +13530,7 @@
       <c r="AA413" s="3"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="A414" s="31"/>
+      <c r="A414" s="29"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
@@ -13526,7 +13559,7 @@
       <c r="AA414" s="3"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="A415" s="31"/>
+      <c r="A415" s="29"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
@@ -13555,7 +13588,7 @@
       <c r="AA415" s="3"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="A416" s="31"/>
+      <c r="A416" s="29"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
@@ -13584,7 +13617,7 @@
       <c r="AA416" s="3"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="A417" s="31"/>
+      <c r="A417" s="29"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
@@ -13613,7 +13646,7 @@
       <c r="AA417" s="3"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="A418" s="31"/>
+      <c r="A418" s="29"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
@@ -13642,7 +13675,7 @@
       <c r="AA418" s="3"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="A419" s="31"/>
+      <c r="A419" s="29"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
@@ -13671,7 +13704,7 @@
       <c r="AA419" s="3"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="A420" s="31"/>
+      <c r="A420" s="29"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
@@ -13700,7 +13733,7 @@
       <c r="AA420" s="3"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="A421" s="31"/>
+      <c r="A421" s="29"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
@@ -13729,7 +13762,7 @@
       <c r="AA421" s="3"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="A422" s="31"/>
+      <c r="A422" s="29"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
@@ -13758,7 +13791,7 @@
       <c r="AA422" s="3"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="A423" s="31"/>
+      <c r="A423" s="29"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
@@ -13787,7 +13820,7 @@
       <c r="AA423" s="3"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="A424" s="31"/>
+      <c r="A424" s="29"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
@@ -13816,7 +13849,7 @@
       <c r="AA424" s="3"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="A425" s="31"/>
+      <c r="A425" s="29"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
@@ -13845,7 +13878,7 @@
       <c r="AA425" s="3"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="A426" s="31"/>
+      <c r="A426" s="29"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
@@ -13874,7 +13907,7 @@
       <c r="AA426" s="3"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="A427" s="31"/>
+      <c r="A427" s="29"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
@@ -13903,7 +13936,7 @@
       <c r="AA427" s="3"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="A428" s="31"/>
+      <c r="A428" s="29"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
@@ -13932,7 +13965,7 @@
       <c r="AA428" s="3"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="A429" s="31"/>
+      <c r="A429" s="29"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
@@ -13961,7 +13994,7 @@
       <c r="AA429" s="3"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="A430" s="31"/>
+      <c r="A430" s="29"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
@@ -13990,7 +14023,7 @@
       <c r="AA430" s="3"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="A431" s="31"/>
+      <c r="A431" s="29"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
@@ -14019,7 +14052,7 @@
       <c r="AA431" s="3"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="A432" s="31"/>
+      <c r="A432" s="29"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
@@ -14048,7 +14081,7 @@
       <c r="AA432" s="3"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="A433" s="31"/>
+      <c r="A433" s="29"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
@@ -14077,7 +14110,7 @@
       <c r="AA433" s="3"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="A434" s="31"/>
+      <c r="A434" s="29"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
@@ -14106,7 +14139,7 @@
       <c r="AA434" s="3"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="A435" s="31"/>
+      <c r="A435" s="29"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
@@ -14135,7 +14168,7 @@
       <c r="AA435" s="3"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="A436" s="31"/>
+      <c r="A436" s="29"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
@@ -14164,7 +14197,7 @@
       <c r="AA436" s="3"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="A437" s="31"/>
+      <c r="A437" s="29"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
@@ -14193,7 +14226,7 @@
       <c r="AA437" s="3"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="A438" s="31"/>
+      <c r="A438" s="29"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
@@ -14222,7 +14255,7 @@
       <c r="AA438" s="3"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="A439" s="31"/>
+      <c r="A439" s="29"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
@@ -14251,7 +14284,7 @@
       <c r="AA439" s="3"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="A440" s="31"/>
+      <c r="A440" s="29"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
@@ -14280,7 +14313,7 @@
       <c r="AA440" s="3"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="A441" s="31"/>
+      <c r="A441" s="29"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
@@ -14309,7 +14342,7 @@
       <c r="AA441" s="3"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="A442" s="31"/>
+      <c r="A442" s="29"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
@@ -14338,7 +14371,7 @@
       <c r="AA442" s="3"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="A443" s="31"/>
+      <c r="A443" s="29"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
@@ -14367,7 +14400,7 @@
       <c r="AA443" s="3"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="A444" s="31"/>
+      <c r="A444" s="29"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
@@ -14396,7 +14429,7 @@
       <c r="AA444" s="3"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="A445" s="31"/>
+      <c r="A445" s="29"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
@@ -14425,7 +14458,7 @@
       <c r="AA445" s="3"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="A446" s="31"/>
+      <c r="A446" s="29"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
@@ -14454,7 +14487,7 @@
       <c r="AA446" s="3"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="A447" s="31"/>
+      <c r="A447" s="29"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
@@ -14483,7 +14516,7 @@
       <c r="AA447" s="3"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="A448" s="31"/>
+      <c r="A448" s="29"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
@@ -14512,7 +14545,7 @@
       <c r="AA448" s="3"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="A449" s="31"/>
+      <c r="A449" s="29"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
@@ -14541,7 +14574,7 @@
       <c r="AA449" s="3"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="A450" s="31"/>
+      <c r="A450" s="29"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
@@ -14570,7 +14603,7 @@
       <c r="AA450" s="3"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="A451" s="31"/>
+      <c r="A451" s="29"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
@@ -14599,7 +14632,7 @@
       <c r="AA451" s="3"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="A452" s="31"/>
+      <c r="A452" s="29"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
@@ -14628,7 +14661,7 @@
       <c r="AA452" s="3"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="A453" s="31"/>
+      <c r="A453" s="29"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
       <c r="D453" s="3"/>
@@ -14657,7 +14690,7 @@
       <c r="AA453" s="3"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="A454" s="31"/>
+      <c r="A454" s="29"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
       <c r="D454" s="3"/>
@@ -14686,7 +14719,7 @@
       <c r="AA454" s="3"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="A455" s="31"/>
+      <c r="A455" s="29"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
       <c r="D455" s="3"/>
@@ -14715,7 +14748,7 @@
       <c r="AA455" s="3"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="A456" s="31"/>
+      <c r="A456" s="29"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
       <c r="D456" s="3"/>
@@ -14744,7 +14777,7 @@
       <c r="AA456" s="3"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="A457" s="31"/>
+      <c r="A457" s="29"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
       <c r="D457" s="3"/>
@@ -14773,7 +14806,7 @@
       <c r="AA457" s="3"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="A458" s="31"/>
+      <c r="A458" s="29"/>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
       <c r="D458" s="3"/>
@@ -14802,7 +14835,7 @@
       <c r="AA458" s="3"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="A459" s="31"/>
+      <c r="A459" s="29"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
       <c r="D459" s="3"/>
@@ -14831,7 +14864,7 @@
       <c r="AA459" s="3"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="A460" s="31"/>
+      <c r="A460" s="29"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
       <c r="D460" s="3"/>
@@ -14860,7 +14893,7 @@
       <c r="AA460" s="3"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="A461" s="31"/>
+      <c r="A461" s="29"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
       <c r="D461" s="3"/>
@@ -14889,7 +14922,7 @@
       <c r="AA461" s="3"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="A462" s="31"/>
+      <c r="A462" s="29"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
       <c r="D462" s="3"/>
@@ -14918,7 +14951,7 @@
       <c r="AA462" s="3"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="A463" s="31"/>
+      <c r="A463" s="29"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
       <c r="D463" s="3"/>
@@ -14947,7 +14980,7 @@
       <c r="AA463" s="3"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="A464" s="31"/>
+      <c r="A464" s="29"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
       <c r="D464" s="3"/>
@@ -14976,7 +15009,7 @@
       <c r="AA464" s="3"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="A465" s="31"/>
+      <c r="A465" s="29"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
       <c r="D465" s="3"/>
@@ -15005,7 +15038,7 @@
       <c r="AA465" s="3"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="A466" s="31"/>
+      <c r="A466" s="29"/>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
       <c r="D466" s="3"/>
@@ -15034,7 +15067,7 @@
       <c r="AA466" s="3"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="A467" s="31"/>
+      <c r="A467" s="29"/>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
       <c r="D467" s="3"/>
@@ -15063,7 +15096,7 @@
       <c r="AA467" s="3"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="A468" s="31"/>
+      <c r="A468" s="29"/>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
       <c r="D468" s="3"/>
@@ -15092,7 +15125,7 @@
       <c r="AA468" s="3"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="A469" s="31"/>
+      <c r="A469" s="29"/>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
       <c r="D469" s="3"/>
@@ -15121,7 +15154,7 @@
       <c r="AA469" s="3"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="A470" s="31"/>
+      <c r="A470" s="29"/>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
       <c r="D470" s="3"/>
@@ -15150,7 +15183,7 @@
       <c r="AA470" s="3"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="A471" s="31"/>
+      <c r="A471" s="29"/>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
       <c r="D471" s="3"/>
@@ -15179,7 +15212,7 @@
       <c r="AA471" s="3"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="A472" s="31"/>
+      <c r="A472" s="29"/>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
       <c r="D472" s="3"/>
@@ -15208,7 +15241,7 @@
       <c r="AA472" s="3"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="A473" s="31"/>
+      <c r="A473" s="29"/>
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
       <c r="D473" s="3"/>
@@ -15237,7 +15270,7 @@
       <c r="AA473" s="3"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="A474" s="31"/>
+      <c r="A474" s="29"/>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
       <c r="D474" s="3"/>
@@ -15266,7 +15299,7 @@
       <c r="AA474" s="3"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="A475" s="31"/>
+      <c r="A475" s="29"/>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
       <c r="D475" s="3"/>
@@ -15295,7 +15328,7 @@
       <c r="AA475" s="3"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="A476" s="31"/>
+      <c r="A476" s="29"/>
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
       <c r="D476" s="3"/>
@@ -15324,7 +15357,7 @@
       <c r="AA476" s="3"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="A477" s="31"/>
+      <c r="A477" s="29"/>
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
       <c r="D477" s="3"/>
@@ -15353,7 +15386,7 @@
       <c r="AA477" s="3"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="A478" s="31"/>
+      <c r="A478" s="29"/>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
       <c r="D478" s="3"/>
@@ -15382,7 +15415,7 @@
       <c r="AA478" s="3"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="A479" s="31"/>
+      <c r="A479" s="29"/>
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
       <c r="D479" s="3"/>
@@ -15411,7 +15444,7 @@
       <c r="AA479" s="3"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="A480" s="31"/>
+      <c r="A480" s="29"/>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
       <c r="D480" s="3"/>
@@ -15440,7 +15473,7 @@
       <c r="AA480" s="3"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="A481" s="31"/>
+      <c r="A481" s="29"/>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
       <c r="D481" s="3"/>
@@ -15469,7 +15502,7 @@
       <c r="AA481" s="3"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="A482" s="31"/>
+      <c r="A482" s="29"/>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
       <c r="D482" s="3"/>
@@ -15498,7 +15531,7 @@
       <c r="AA482" s="3"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="A483" s="31"/>
+      <c r="A483" s="29"/>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
       <c r="D483" s="3"/>
@@ -15527,7 +15560,7 @@
       <c r="AA483" s="3"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="A484" s="31"/>
+      <c r="A484" s="29"/>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
       <c r="D484" s="3"/>
@@ -15556,7 +15589,7 @@
       <c r="AA484" s="3"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="A485" s="31"/>
+      <c r="A485" s="29"/>
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
       <c r="D485" s="3"/>
@@ -15585,7 +15618,7 @@
       <c r="AA485" s="3"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="A486" s="31"/>
+      <c r="A486" s="29"/>
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
       <c r="D486" s="3"/>
@@ -15614,7 +15647,7 @@
       <c r="AA486" s="3"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="A487" s="31"/>
+      <c r="A487" s="29"/>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
       <c r="D487" s="3"/>
@@ -15643,7 +15676,7 @@
       <c r="AA487" s="3"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="A488" s="31"/>
+      <c r="A488" s="29"/>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
       <c r="D488" s="3"/>
@@ -15672,7 +15705,7 @@
       <c r="AA488" s="3"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="A489" s="31"/>
+      <c r="A489" s="29"/>
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
       <c r="D489" s="3"/>
@@ -15701,7 +15734,7 @@
       <c r="AA489" s="3"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="A490" s="31"/>
+      <c r="A490" s="29"/>
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
       <c r="D490" s="3"/>
@@ -15730,7 +15763,7 @@
       <c r="AA490" s="3"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="A491" s="31"/>
+      <c r="A491" s="29"/>
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
       <c r="D491" s="3"/>
@@ -15759,7 +15792,7 @@
       <c r="AA491" s="3"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="A492" s="31"/>
+      <c r="A492" s="29"/>
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
       <c r="D492" s="3"/>
@@ -15788,7 +15821,7 @@
       <c r="AA492" s="3"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="A493" s="31"/>
+      <c r="A493" s="29"/>
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
       <c r="D493" s="3"/>
@@ -15817,7 +15850,7 @@
       <c r="AA493" s="3"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="A494" s="31"/>
+      <c r="A494" s="29"/>
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
       <c r="D494" s="3"/>
@@ -15846,7 +15879,7 @@
       <c r="AA494" s="3"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="A495" s="31"/>
+      <c r="A495" s="29"/>
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
       <c r="D495" s="3"/>
@@ -15875,7 +15908,7 @@
       <c r="AA495" s="3"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="A496" s="31"/>
+      <c r="A496" s="29"/>
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
       <c r="D496" s="3"/>
@@ -15904,7 +15937,7 @@
       <c r="AA496" s="3"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="A497" s="31"/>
+      <c r="A497" s="29"/>
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
       <c r="D497" s="3"/>
@@ -15933,7 +15966,7 @@
       <c r="AA497" s="3"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="A498" s="31"/>
+      <c r="A498" s="29"/>
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
       <c r="D498" s="3"/>
@@ -15962,7 +15995,7 @@
       <c r="AA498" s="3"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="A499" s="31"/>
+      <c r="A499" s="29"/>
       <c r="B499" s="3"/>
       <c r="C499" s="3"/>
       <c r="D499" s="3"/>
@@ -15991,7 +16024,7 @@
       <c r="AA499" s="3"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="A500" s="31"/>
+      <c r="A500" s="29"/>
       <c r="B500" s="3"/>
       <c r="C500" s="3"/>
       <c r="D500" s="3"/>
@@ -16020,7 +16053,7 @@
       <c r="AA500" s="3"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="A501" s="31"/>
+      <c r="A501" s="29"/>
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
       <c r="D501" s="3"/>
@@ -16049,7 +16082,7 @@
       <c r="AA501" s="3"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="A502" s="31"/>
+      <c r="A502" s="29"/>
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
       <c r="D502" s="3"/>
@@ -16078,7 +16111,7 @@
       <c r="AA502" s="3"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="A503" s="31"/>
+      <c r="A503" s="29"/>
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
       <c r="D503" s="3"/>
@@ -16107,7 +16140,7 @@
       <c r="AA503" s="3"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="A504" s="31"/>
+      <c r="A504" s="29"/>
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
       <c r="D504" s="3"/>
@@ -16136,7 +16169,7 @@
       <c r="AA504" s="3"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="A505" s="31"/>
+      <c r="A505" s="29"/>
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
       <c r="D505" s="3"/>
@@ -16165,7 +16198,7 @@
       <c r="AA505" s="3"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="A506" s="31"/>
+      <c r="A506" s="29"/>
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
       <c r="D506" s="3"/>
@@ -16194,7 +16227,7 @@
       <c r="AA506" s="3"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="A507" s="31"/>
+      <c r="A507" s="29"/>
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
       <c r="D507" s="3"/>
@@ -16223,7 +16256,7 @@
       <c r="AA507" s="3"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="A508" s="31"/>
+      <c r="A508" s="29"/>
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
       <c r="D508" s="3"/>
@@ -16252,7 +16285,7 @@
       <c r="AA508" s="3"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="A509" s="31"/>
+      <c r="A509" s="29"/>
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
       <c r="D509" s="3"/>
@@ -16281,7 +16314,7 @@
       <c r="AA509" s="3"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="A510" s="31"/>
+      <c r="A510" s="29"/>
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
       <c r="D510" s="3"/>
@@ -16310,7 +16343,7 @@
       <c r="AA510" s="3"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="A511" s="31"/>
+      <c r="A511" s="29"/>
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
       <c r="D511" s="3"/>
@@ -16339,7 +16372,7 @@
       <c r="AA511" s="3"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="A512" s="31"/>
+      <c r="A512" s="29"/>
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
       <c r="D512" s="3"/>
@@ -16368,7 +16401,7 @@
       <c r="AA512" s="3"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="A513" s="31"/>
+      <c r="A513" s="29"/>
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
       <c r="D513" s="3"/>
@@ -16397,7 +16430,7 @@
       <c r="AA513" s="3"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="A514" s="31"/>
+      <c r="A514" s="29"/>
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
       <c r="D514" s="3"/>
@@ -16426,7 +16459,7 @@
       <c r="AA514" s="3"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="A515" s="31"/>
+      <c r="A515" s="29"/>
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
       <c r="D515" s="3"/>
@@ -16455,7 +16488,7 @@
       <c r="AA515" s="3"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="A516" s="31"/>
+      <c r="A516" s="29"/>
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
       <c r="D516" s="3"/>
@@ -16484,7 +16517,7 @@
       <c r="AA516" s="3"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="A517" s="31"/>
+      <c r="A517" s="29"/>
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
       <c r="D517" s="3"/>
@@ -16513,7 +16546,7 @@
       <c r="AA517" s="3"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="A518" s="31"/>
+      <c r="A518" s="29"/>
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
       <c r="D518" s="3"/>
@@ -16542,7 +16575,7 @@
       <c r="AA518" s="3"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="A519" s="31"/>
+      <c r="A519" s="29"/>
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
       <c r="D519" s="3"/>
@@ -16571,7 +16604,7 @@
       <c r="AA519" s="3"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="A520" s="31"/>
+      <c r="A520" s="29"/>
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
       <c r="D520" s="3"/>
@@ -16600,7 +16633,7 @@
       <c r="AA520" s="3"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="A521" s="31"/>
+      <c r="A521" s="29"/>
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
       <c r="D521" s="3"/>
@@ -16629,7 +16662,7 @@
       <c r="AA521" s="3"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="A522" s="31"/>
+      <c r="A522" s="29"/>
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
       <c r="D522" s="3"/>
@@ -16658,7 +16691,7 @@
       <c r="AA522" s="3"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="A523" s="31"/>
+      <c r="A523" s="29"/>
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
       <c r="D523" s="3"/>
@@ -16687,7 +16720,7 @@
       <c r="AA523" s="3"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="A524" s="31"/>
+      <c r="A524" s="29"/>
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
       <c r="D524" s="3"/>
@@ -16716,7 +16749,7 @@
       <c r="AA524" s="3"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="A525" s="31"/>
+      <c r="A525" s="29"/>
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
       <c r="D525" s="3"/>
@@ -16745,7 +16778,7 @@
       <c r="AA525" s="3"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="A526" s="31"/>
+      <c r="A526" s="29"/>
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
       <c r="D526" s="3"/>
@@ -16774,7 +16807,7 @@
       <c r="AA526" s="3"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="A527" s="31"/>
+      <c r="A527" s="29"/>
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
       <c r="D527" s="3"/>
@@ -16803,7 +16836,7 @@
       <c r="AA527" s="3"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="A528" s="31"/>
+      <c r="A528" s="29"/>
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
       <c r="D528" s="3"/>
@@ -16832,7 +16865,7 @@
       <c r="AA528" s="3"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="A529" s="31"/>
+      <c r="A529" s="29"/>
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
       <c r="D529" s="3"/>
@@ -16861,7 +16894,7 @@
       <c r="AA529" s="3"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="A530" s="31"/>
+      <c r="A530" s="29"/>
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
       <c r="D530" s="3"/>
@@ -16890,7 +16923,7 @@
       <c r="AA530" s="3"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="A531" s="31"/>
+      <c r="A531" s="29"/>
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
       <c r="D531" s="3"/>
@@ -16919,7 +16952,7 @@
       <c r="AA531" s="3"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="A532" s="31"/>
+      <c r="A532" s="29"/>
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
       <c r="D532" s="3"/>
@@ -16948,7 +16981,7 @@
       <c r="AA532" s="3"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="A533" s="31"/>
+      <c r="A533" s="29"/>
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
       <c r="D533" s="3"/>
@@ -16977,7 +17010,7 @@
       <c r="AA533" s="3"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="A534" s="31"/>
+      <c r="A534" s="29"/>
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
       <c r="D534" s="3"/>
@@ -17006,7 +17039,7 @@
       <c r="AA534" s="3"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="A535" s="31"/>
+      <c r="A535" s="29"/>
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
       <c r="D535" s="3"/>
@@ -17035,7 +17068,7 @@
       <c r="AA535" s="3"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="A536" s="31"/>
+      <c r="A536" s="29"/>
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
       <c r="D536" s="3"/>
@@ -17064,7 +17097,7 @@
       <c r="AA536" s="3"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="A537" s="31"/>
+      <c r="A537" s="29"/>
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
       <c r="D537" s="3"/>
@@ -17093,7 +17126,7 @@
       <c r="AA537" s="3"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="A538" s="31"/>
+      <c r="A538" s="29"/>
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
       <c r="D538" s="3"/>
@@ -17122,7 +17155,7 @@
       <c r="AA538" s="3"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="A539" s="31"/>
+      <c r="A539" s="29"/>
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
       <c r="D539" s="3"/>
@@ -17151,7 +17184,7 @@
       <c r="AA539" s="3"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="A540" s="31"/>
+      <c r="A540" s="29"/>
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
       <c r="D540" s="3"/>
@@ -17180,7 +17213,7 @@
       <c r="AA540" s="3"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="A541" s="31"/>
+      <c r="A541" s="29"/>
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
       <c r="D541" s="3"/>
@@ -17209,7 +17242,7 @@
       <c r="AA541" s="3"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="A542" s="31"/>
+      <c r="A542" s="29"/>
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
       <c r="D542" s="3"/>
@@ -17238,7 +17271,7 @@
       <c r="AA542" s="3"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="A543" s="31"/>
+      <c r="A543" s="29"/>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
       <c r="D543" s="3"/>
@@ -17267,7 +17300,7 @@
       <c r="AA543" s="3"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="A544" s="31"/>
+      <c r="A544" s="29"/>
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
       <c r="D544" s="3"/>
@@ -17296,7 +17329,7 @@
       <c r="AA544" s="3"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="A545" s="31"/>
+      <c r="A545" s="29"/>
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
       <c r="D545" s="3"/>
@@ -17325,7 +17358,7 @@
       <c r="AA545" s="3"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="A546" s="31"/>
+      <c r="A546" s="29"/>
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
       <c r="D546" s="3"/>
@@ -17354,7 +17387,7 @@
       <c r="AA546" s="3"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="A547" s="31"/>
+      <c r="A547" s="29"/>
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
       <c r="D547" s="3"/>
@@ -17383,7 +17416,7 @@
       <c r="AA547" s="3"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="A548" s="31"/>
+      <c r="A548" s="29"/>
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
       <c r="D548" s="3"/>
@@ -17412,7 +17445,7 @@
       <c r="AA548" s="3"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="A549" s="31"/>
+      <c r="A549" s="29"/>
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
       <c r="D549" s="3"/>
@@ -17441,7 +17474,7 @@
       <c r="AA549" s="3"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="A550" s="31"/>
+      <c r="A550" s="29"/>
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
       <c r="D550" s="3"/>
@@ -17470,7 +17503,7 @@
       <c r="AA550" s="3"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="A551" s="31"/>
+      <c r="A551" s="29"/>
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
       <c r="D551" s="3"/>
@@ -17499,7 +17532,7 @@
       <c r="AA551" s="3"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="A552" s="31"/>
+      <c r="A552" s="29"/>
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
       <c r="D552" s="3"/>
@@ -17528,7 +17561,7 @@
       <c r="AA552" s="3"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="A553" s="31"/>
+      <c r="A553" s="29"/>
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
       <c r="D553" s="3"/>
@@ -17557,7 +17590,7 @@
       <c r="AA553" s="3"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="A554" s="31"/>
+      <c r="A554" s="29"/>
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
       <c r="D554" s="3"/>
@@ -17586,7 +17619,7 @@
       <c r="AA554" s="3"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="A555" s="31"/>
+      <c r="A555" s="29"/>
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
       <c r="D555" s="3"/>
@@ -17615,7 +17648,7 @@
       <c r="AA555" s="3"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="A556" s="31"/>
+      <c r="A556" s="29"/>
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
       <c r="D556" s="3"/>
@@ -17644,7 +17677,7 @@
       <c r="AA556" s="3"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="A557" s="31"/>
+      <c r="A557" s="29"/>
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
       <c r="D557" s="3"/>
@@ -17673,7 +17706,7 @@
       <c r="AA557" s="3"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="A558" s="31"/>
+      <c r="A558" s="29"/>
       <c r="B558" s="3"/>
       <c r="C558" s="3"/>
       <c r="D558" s="3"/>
@@ -17702,7 +17735,7 @@
       <c r="AA558" s="3"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="A559" s="31"/>
+      <c r="A559" s="29"/>
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
       <c r="D559" s="3"/>
@@ -17731,7 +17764,7 @@
       <c r="AA559" s="3"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="A560" s="31"/>
+      <c r="A560" s="29"/>
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
       <c r="D560" s="3"/>
@@ -17760,7 +17793,7 @@
       <c r="AA560" s="3"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="A561" s="31"/>
+      <c r="A561" s="29"/>
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
       <c r="D561" s="3"/>
@@ -17789,7 +17822,7 @@
       <c r="AA561" s="3"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="A562" s="31"/>
+      <c r="A562" s="29"/>
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
       <c r="D562" s="3"/>
@@ -17818,7 +17851,7 @@
       <c r="AA562" s="3"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="A563" s="31"/>
+      <c r="A563" s="29"/>
       <c r="B563" s="3"/>
       <c r="C563" s="3"/>
       <c r="D563" s="3"/>
@@ -17847,7 +17880,7 @@
       <c r="AA563" s="3"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="A564" s="31"/>
+      <c r="A564" s="29"/>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
       <c r="D564" s="3"/>
@@ -17876,7 +17909,7 @@
       <c r="AA564" s="3"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="A565" s="31"/>
+      <c r="A565" s="29"/>
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
       <c r="D565" s="3"/>
@@ -17905,7 +17938,7 @@
       <c r="AA565" s="3"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="A566" s="31"/>
+      <c r="A566" s="29"/>
       <c r="B566" s="3"/>
       <c r="C566" s="3"/>
       <c r="D566" s="3"/>
@@ -17934,7 +17967,7 @@
       <c r="AA566" s="3"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="A567" s="31"/>
+      <c r="A567" s="29"/>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
       <c r="D567" s="3"/>
@@ -17963,7 +17996,7 @@
       <c r="AA567" s="3"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="A568" s="31"/>
+      <c r="A568" s="29"/>
       <c r="B568" s="3"/>
       <c r="C568" s="3"/>
       <c r="D568" s="3"/>
@@ -17992,7 +18025,7 @@
       <c r="AA568" s="3"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="A569" s="31"/>
+      <c r="A569" s="29"/>
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
       <c r="D569" s="3"/>
@@ -18021,7 +18054,7 @@
       <c r="AA569" s="3"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="A570" s="31"/>
+      <c r="A570" s="29"/>
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
       <c r="D570" s="3"/>
@@ -18050,7 +18083,7 @@
       <c r="AA570" s="3"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="A571" s="31"/>
+      <c r="A571" s="29"/>
       <c r="B571" s="3"/>
       <c r="C571" s="3"/>
       <c r="D571" s="3"/>
@@ -18079,7 +18112,7 @@
       <c r="AA571" s="3"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="A572" s="31"/>
+      <c r="A572" s="29"/>
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
       <c r="D572" s="3"/>
@@ -18108,7 +18141,7 @@
       <c r="AA572" s="3"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="A573" s="31"/>
+      <c r="A573" s="29"/>
       <c r="B573" s="3"/>
       <c r="C573" s="3"/>
       <c r="D573" s="3"/>
@@ -18137,7 +18170,7 @@
       <c r="AA573" s="3"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="A574" s="31"/>
+      <c r="A574" s="29"/>
       <c r="B574" s="3"/>
       <c r="C574" s="3"/>
       <c r="D574" s="3"/>
@@ -18166,7 +18199,7 @@
       <c r="AA574" s="3"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="A575" s="31"/>
+      <c r="A575" s="29"/>
       <c r="B575" s="3"/>
       <c r="C575" s="3"/>
       <c r="D575" s="3"/>
@@ -18195,7 +18228,7 @@
       <c r="AA575" s="3"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="A576" s="31"/>
+      <c r="A576" s="29"/>
       <c r="B576" s="3"/>
       <c r="C576" s="3"/>
       <c r="D576" s="3"/>
@@ -18224,7 +18257,7 @@
       <c r="AA576" s="3"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="A577" s="31"/>
+      <c r="A577" s="29"/>
       <c r="B577" s="3"/>
       <c r="C577" s="3"/>
       <c r="D577" s="3"/>
@@ -18253,7 +18286,7 @@
       <c r="AA577" s="3"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="A578" s="31"/>
+      <c r="A578" s="29"/>
       <c r="B578" s="3"/>
       <c r="C578" s="3"/>
       <c r="D578" s="3"/>
@@ -18282,7 +18315,7 @@
       <c r="AA578" s="3"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="A579" s="31"/>
+      <c r="A579" s="29"/>
       <c r="B579" s="3"/>
       <c r="C579" s="3"/>
       <c r="D579" s="3"/>
@@ -18311,7 +18344,7 @@
       <c r="AA579" s="3"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="A580" s="31"/>
+      <c r="A580" s="29"/>
       <c r="B580" s="3"/>
       <c r="C580" s="3"/>
       <c r="D580" s="3"/>
@@ -18340,7 +18373,7 @@
       <c r="AA580" s="3"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="A581" s="31"/>
+      <c r="A581" s="29"/>
       <c r="B581" s="3"/>
       <c r="C581" s="3"/>
       <c r="D581" s="3"/>
@@ -18369,7 +18402,7 @@
       <c r="AA581" s="3"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="A582" s="31"/>
+      <c r="A582" s="29"/>
       <c r="B582" s="3"/>
       <c r="C582" s="3"/>
       <c r="D582" s="3"/>
@@ -18398,7 +18431,7 @@
       <c r="AA582" s="3"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="A583" s="31"/>
+      <c r="A583" s="29"/>
       <c r="B583" s="3"/>
       <c r="C583" s="3"/>
       <c r="D583" s="3"/>
@@ -18427,7 +18460,7 @@
       <c r="AA583" s="3"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="A584" s="31"/>
+      <c r="A584" s="29"/>
       <c r="B584" s="3"/>
       <c r="C584" s="3"/>
       <c r="D584" s="3"/>
@@ -18456,7 +18489,7 @@
       <c r="AA584" s="3"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="A585" s="31"/>
+      <c r="A585" s="29"/>
       <c r="B585" s="3"/>
       <c r="C585" s="3"/>
       <c r="D585" s="3"/>
@@ -18485,7 +18518,7 @@
       <c r="AA585" s="3"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="A586" s="31"/>
+      <c r="A586" s="29"/>
       <c r="B586" s="3"/>
       <c r="C586" s="3"/>
       <c r="D586" s="3"/>
@@ -18514,7 +18547,7 @@
       <c r="AA586" s="3"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="A587" s="31"/>
+      <c r="A587" s="29"/>
       <c r="B587" s="3"/>
       <c r="C587" s="3"/>
       <c r="D587" s="3"/>
@@ -18543,7 +18576,7 @@
       <c r="AA587" s="3"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="A588" s="31"/>
+      <c r="A588" s="29"/>
       <c r="B588" s="3"/>
       <c r="C588" s="3"/>
       <c r="D588" s="3"/>
@@ -18572,7 +18605,7 @@
       <c r="AA588" s="3"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="A589" s="31"/>
+      <c r="A589" s="29"/>
       <c r="B589" s="3"/>
       <c r="C589" s="3"/>
       <c r="D589" s="3"/>
@@ -18601,7 +18634,7 @@
       <c r="AA589" s="3"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="A590" s="31"/>
+      <c r="A590" s="29"/>
       <c r="B590" s="3"/>
       <c r="C590" s="3"/>
       <c r="D590" s="3"/>
@@ -18630,7 +18663,7 @@
       <c r="AA590" s="3"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="A591" s="31"/>
+      <c r="A591" s="29"/>
       <c r="B591" s="3"/>
       <c r="C591" s="3"/>
       <c r="D591" s="3"/>
@@ -18659,7 +18692,7 @@
       <c r="AA591" s="3"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="A592" s="31"/>
+      <c r="A592" s="29"/>
       <c r="B592" s="3"/>
       <c r="C592" s="3"/>
       <c r="D592" s="3"/>
@@ -18688,7 +18721,7 @@
       <c r="AA592" s="3"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="A593" s="31"/>
+      <c r="A593" s="29"/>
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
       <c r="D593" s="3"/>
@@ -18717,7 +18750,7 @@
       <c r="AA593" s="3"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="A594" s="31"/>
+      <c r="A594" s="29"/>
       <c r="B594" s="3"/>
       <c r="C594" s="3"/>
       <c r="D594" s="3"/>
@@ -18746,7 +18779,7 @@
       <c r="AA594" s="3"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="A595" s="31"/>
+      <c r="A595" s="29"/>
       <c r="B595" s="3"/>
       <c r="C595" s="3"/>
       <c r="D595" s="3"/>
@@ -18775,7 +18808,7 @@
       <c r="AA595" s="3"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="A596" s="31"/>
+      <c r="A596" s="29"/>
       <c r="B596" s="3"/>
       <c r="C596" s="3"/>
       <c r="D596" s="3"/>
@@ -18804,7 +18837,7 @@
       <c r="AA596" s="3"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="A597" s="31"/>
+      <c r="A597" s="29"/>
       <c r="B597" s="3"/>
       <c r="C597" s="3"/>
       <c r="D597" s="3"/>
@@ -18833,7 +18866,7 @@
       <c r="AA597" s="3"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="A598" s="31"/>
+      <c r="A598" s="29"/>
       <c r="B598" s="3"/>
       <c r="C598" s="3"/>
       <c r="D598" s="3"/>
@@ -18862,7 +18895,7 @@
       <c r="AA598" s="3"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="A599" s="31"/>
+      <c r="A599" s="29"/>
       <c r="B599" s="3"/>
       <c r="C599" s="3"/>
       <c r="D599" s="3"/>
@@ -18891,7 +18924,7 @@
       <c r="AA599" s="3"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="A600" s="31"/>
+      <c r="A600" s="29"/>
       <c r="B600" s="3"/>
       <c r="C600" s="3"/>
       <c r="D600" s="3"/>
@@ -18920,7 +18953,7 @@
       <c r="AA600" s="3"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="A601" s="31"/>
+      <c r="A601" s="29"/>
       <c r="B601" s="3"/>
       <c r="C601" s="3"/>
       <c r="D601" s="3"/>
@@ -18949,7 +18982,7 @@
       <c r="AA601" s="3"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="A602" s="31"/>
+      <c r="A602" s="29"/>
       <c r="B602" s="3"/>
       <c r="C602" s="3"/>
       <c r="D602" s="3"/>
@@ -18978,7 +19011,7 @@
       <c r="AA602" s="3"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="A603" s="31"/>
+      <c r="A603" s="29"/>
       <c r="B603" s="3"/>
       <c r="C603" s="3"/>
       <c r="D603" s="3"/>
@@ -19007,7 +19040,7 @@
       <c r="AA603" s="3"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="A604" s="31"/>
+      <c r="A604" s="29"/>
       <c r="B604" s="3"/>
       <c r="C604" s="3"/>
       <c r="D604" s="3"/>
@@ -19036,7 +19069,7 @@
       <c r="AA604" s="3"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="A605" s="31"/>
+      <c r="A605" s="29"/>
       <c r="B605" s="3"/>
       <c r="C605" s="3"/>
       <c r="D605" s="3"/>
@@ -19065,7 +19098,7 @@
       <c r="AA605" s="3"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="A606" s="31"/>
+      <c r="A606" s="29"/>
       <c r="B606" s="3"/>
       <c r="C606" s="3"/>
       <c r="D606" s="3"/>
@@ -19094,7 +19127,7 @@
       <c r="AA606" s="3"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="A607" s="31"/>
+      <c r="A607" s="29"/>
       <c r="B607" s="3"/>
       <c r="C607" s="3"/>
       <c r="D607" s="3"/>
@@ -19123,7 +19156,7 @@
       <c r="AA607" s="3"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="A608" s="31"/>
+      <c r="A608" s="29"/>
       <c r="B608" s="3"/>
       <c r="C608" s="3"/>
       <c r="D608" s="3"/>
@@ -19152,7 +19185,7 @@
       <c r="AA608" s="3"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="A609" s="31"/>
+      <c r="A609" s="29"/>
       <c r="B609" s="3"/>
       <c r="C609" s="3"/>
       <c r="D609" s="3"/>
@@ -19181,7 +19214,7 @@
       <c r="AA609" s="3"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="A610" s="31"/>
+      <c r="A610" s="29"/>
       <c r="B610" s="3"/>
       <c r="C610" s="3"/>
       <c r="D610" s="3"/>
@@ -19210,7 +19243,7 @@
       <c r="AA610" s="3"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="A611" s="31"/>
+      <c r="A611" s="29"/>
       <c r="B611" s="3"/>
       <c r="C611" s="3"/>
       <c r="D611" s="3"/>
@@ -19239,7 +19272,7 @@
       <c r="AA611" s="3"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="A612" s="31"/>
+      <c r="A612" s="29"/>
       <c r="B612" s="3"/>
       <c r="C612" s="3"/>
       <c r="D612" s="3"/>
@@ -19268,7 +19301,7 @@
       <c r="AA612" s="3"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="A613" s="31"/>
+      <c r="A613" s="29"/>
       <c r="B613" s="3"/>
       <c r="C613" s="3"/>
       <c r="D613" s="3"/>
@@ -19297,7 +19330,7 @@
       <c r="AA613" s="3"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="A614" s="31"/>
+      <c r="A614" s="29"/>
       <c r="B614" s="3"/>
       <c r="C614" s="3"/>
       <c r="D614" s="3"/>
@@ -19326,7 +19359,7 @@
       <c r="AA614" s="3"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="A615" s="31"/>
+      <c r="A615" s="29"/>
       <c r="B615" s="3"/>
       <c r="C615" s="3"/>
       <c r="D615" s="3"/>
@@ -19355,7 +19388,7 @@
       <c r="AA615" s="3"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="A616" s="31"/>
+      <c r="A616" s="29"/>
       <c r="B616" s="3"/>
       <c r="C616" s="3"/>
       <c r="D616" s="3"/>
@@ -19384,7 +19417,7 @@
       <c r="AA616" s="3"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="A617" s="31"/>
+      <c r="A617" s="29"/>
       <c r="B617" s="3"/>
       <c r="C617" s="3"/>
       <c r="D617" s="3"/>
@@ -19413,7 +19446,7 @@
       <c r="AA617" s="3"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="A618" s="31"/>
+      <c r="A618" s="29"/>
       <c r="B618" s="3"/>
       <c r="C618" s="3"/>
       <c r="D618" s="3"/>
@@ -19442,7 +19475,7 @@
       <c r="AA618" s="3"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="A619" s="31"/>
+      <c r="A619" s="29"/>
       <c r="B619" s="3"/>
       <c r="C619" s="3"/>
       <c r="D619" s="3"/>
@@ -19471,7 +19504,7 @@
       <c r="AA619" s="3"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="A620" s="31"/>
+      <c r="A620" s="29"/>
       <c r="B620" s="3"/>
       <c r="C620" s="3"/>
       <c r="D620" s="3"/>
@@ -19500,7 +19533,7 @@
       <c r="AA620" s="3"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="A621" s="31"/>
+      <c r="A621" s="29"/>
       <c r="B621" s="3"/>
       <c r="C621" s="3"/>
       <c r="D621" s="3"/>
@@ -19529,7 +19562,7 @@
       <c r="AA621" s="3"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="A622" s="31"/>
+      <c r="A622" s="29"/>
       <c r="B622" s="3"/>
       <c r="C622" s="3"/>
       <c r="D622" s="3"/>
@@ -19558,7 +19591,7 @@
       <c r="AA622" s="3"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="A623" s="31"/>
+      <c r="A623" s="29"/>
       <c r="B623" s="3"/>
       <c r="C623" s="3"/>
       <c r="D623" s="3"/>
@@ -19587,7 +19620,7 @@
       <c r="AA623" s="3"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="A624" s="31"/>
+      <c r="A624" s="29"/>
       <c r="B624" s="3"/>
       <c r="C624" s="3"/>
       <c r="D624" s="3"/>
@@ -19616,7 +19649,7 @@
       <c r="AA624" s="3"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="A625" s="31"/>
+      <c r="A625" s="29"/>
       <c r="B625" s="3"/>
       <c r="C625" s="3"/>
       <c r="D625" s="3"/>
@@ -19645,7 +19678,7 @@
       <c r="AA625" s="3"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="A626" s="31"/>
+      <c r="A626" s="29"/>
       <c r="B626" s="3"/>
       <c r="C626" s="3"/>
       <c r="D626" s="3"/>
@@ -19674,7 +19707,7 @@
       <c r="AA626" s="3"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="A627" s="31"/>
+      <c r="A627" s="29"/>
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
       <c r="D627" s="3"/>
@@ -19703,7 +19736,7 @@
       <c r="AA627" s="3"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="A628" s="31"/>
+      <c r="A628" s="29"/>
       <c r="B628" s="3"/>
       <c r="C628" s="3"/>
       <c r="D628" s="3"/>
@@ -19732,7 +19765,7 @@
       <c r="AA628" s="3"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="A629" s="31"/>
+      <c r="A629" s="29"/>
       <c r="B629" s="3"/>
       <c r="C629" s="3"/>
       <c r="D629" s="3"/>
@@ -19761,7 +19794,7 @@
       <c r="AA629" s="3"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="A630" s="31"/>
+      <c r="A630" s="29"/>
       <c r="B630" s="3"/>
       <c r="C630" s="3"/>
       <c r="D630" s="3"/>
@@ -19790,7 +19823,7 @@
       <c r="AA630" s="3"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="A631" s="31"/>
+      <c r="A631" s="29"/>
       <c r="B631" s="3"/>
       <c r="C631" s="3"/>
       <c r="D631" s="3"/>
@@ -19819,7 +19852,7 @@
       <c r="AA631" s="3"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="A632" s="31"/>
+      <c r="A632" s="29"/>
       <c r="B632" s="3"/>
       <c r="C632" s="3"/>
       <c r="D632" s="3"/>
@@ -19848,7 +19881,7 @@
       <c r="AA632" s="3"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="A633" s="31"/>
+      <c r="A633" s="29"/>
       <c r="B633" s="3"/>
       <c r="C633" s="3"/>
       <c r="D633" s="3"/>
@@ -19877,7 +19910,7 @@
       <c r="AA633" s="3"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="A634" s="31"/>
+      <c r="A634" s="29"/>
       <c r="B634" s="3"/>
       <c r="C634" s="3"/>
       <c r="D634" s="3"/>
@@ -19906,7 +19939,7 @@
       <c r="AA634" s="3"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="A635" s="31"/>
+      <c r="A635" s="29"/>
       <c r="B635" s="3"/>
       <c r="C635" s="3"/>
       <c r="D635" s="3"/>
@@ -19935,7 +19968,7 @@
       <c r="AA635" s="3"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="A636" s="31"/>
+      <c r="A636" s="29"/>
       <c r="B636" s="3"/>
       <c r="C636" s="3"/>
       <c r="D636" s="3"/>
@@ -19964,7 +19997,7 @@
       <c r="AA636" s="3"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="A637" s="31"/>
+      <c r="A637" s="29"/>
       <c r="B637" s="3"/>
       <c r="C637" s="3"/>
       <c r="D637" s="3"/>
@@ -19993,7 +20026,7 @@
       <c r="AA637" s="3"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="A638" s="31"/>
+      <c r="A638" s="29"/>
       <c r="B638" s="3"/>
       <c r="C638" s="3"/>
       <c r="D638" s="3"/>
@@ -20022,7 +20055,7 @@
       <c r="AA638" s="3"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="A639" s="31"/>
+      <c r="A639" s="29"/>
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
       <c r="D639" s="3"/>
@@ -20051,7 +20084,7 @@
       <c r="AA639" s="3"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="A640" s="31"/>
+      <c r="A640" s="29"/>
       <c r="B640" s="3"/>
       <c r="C640" s="3"/>
       <c r="D640" s="3"/>
@@ -20080,7 +20113,7 @@
       <c r="AA640" s="3"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="A641" s="31"/>
+      <c r="A641" s="29"/>
       <c r="B641" s="3"/>
       <c r="C641" s="3"/>
       <c r="D641" s="3"/>
@@ -20109,7 +20142,7 @@
       <c r="AA641" s="3"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="A642" s="31"/>
+      <c r="A642" s="29"/>
       <c r="B642" s="3"/>
       <c r="C642" s="3"/>
       <c r="D642" s="3"/>
@@ -20138,7 +20171,7 @@
       <c r="AA642" s="3"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="A643" s="31"/>
+      <c r="A643" s="29"/>
       <c r="B643" s="3"/>
       <c r="C643" s="3"/>
       <c r="D643" s="3"/>
@@ -20167,7 +20200,7 @@
       <c r="AA643" s="3"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="A644" s="31"/>
+      <c r="A644" s="29"/>
       <c r="B644" s="3"/>
       <c r="C644" s="3"/>
       <c r="D644" s="3"/>
@@ -20196,7 +20229,7 @@
       <c r="AA644" s="3"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="A645" s="31"/>
+      <c r="A645" s="29"/>
       <c r="B645" s="3"/>
       <c r="C645" s="3"/>
       <c r="D645" s="3"/>
@@ -20225,7 +20258,7 @@
       <c r="AA645" s="3"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="A646" s="31"/>
+      <c r="A646" s="29"/>
       <c r="B646" s="3"/>
       <c r="C646" s="3"/>
       <c r="D646" s="3"/>
@@ -20254,7 +20287,7 @@
       <c r="AA646" s="3"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="A647" s="31"/>
+      <c r="A647" s="29"/>
       <c r="B647" s="3"/>
       <c r="C647" s="3"/>
       <c r="D647" s="3"/>
@@ -20283,7 +20316,7 @@
       <c r="AA647" s="3"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="A648" s="31"/>
+      <c r="A648" s="29"/>
       <c r="B648" s="3"/>
       <c r="C648" s="3"/>
       <c r="D648" s="3"/>
@@ -20312,7 +20345,7 @@
       <c r="AA648" s="3"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="A649" s="31"/>
+      <c r="A649" s="29"/>
       <c r="B649" s="3"/>
       <c r="C649" s="3"/>
       <c r="D649" s="3"/>
@@ -20341,7 +20374,7 @@
       <c r="AA649" s="3"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="A650" s="31"/>
+      <c r="A650" s="29"/>
       <c r="B650" s="3"/>
       <c r="C650" s="3"/>
       <c r="D650" s="3"/>
@@ -20370,7 +20403,7 @@
       <c r="AA650" s="3"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="A651" s="31"/>
+      <c r="A651" s="29"/>
       <c r="B651" s="3"/>
       <c r="C651" s="3"/>
       <c r="D651" s="3"/>
@@ -20399,7 +20432,7 @@
       <c r="AA651" s="3"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="A652" s="31"/>
+      <c r="A652" s="29"/>
       <c r="B652" s="3"/>
       <c r="C652" s="3"/>
       <c r="D652" s="3"/>
@@ -20428,7 +20461,7 @@
       <c r="AA652" s="3"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="A653" s="31"/>
+      <c r="A653" s="29"/>
       <c r="B653" s="3"/>
       <c r="C653" s="3"/>
       <c r="D653" s="3"/>
@@ -20457,7 +20490,7 @@
       <c r="AA653" s="3"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="A654" s="31"/>
+      <c r="A654" s="29"/>
       <c r="B654" s="3"/>
       <c r="C654" s="3"/>
       <c r="D654" s="3"/>
@@ -20486,7 +20519,7 @@
       <c r="AA654" s="3"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="A655" s="31"/>
+      <c r="A655" s="29"/>
       <c r="B655" s="3"/>
       <c r="C655" s="3"/>
       <c r="D655" s="3"/>
@@ -20515,7 +20548,7 @@
       <c r="AA655" s="3"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="A656" s="31"/>
+      <c r="A656" s="29"/>
       <c r="B656" s="3"/>
       <c r="C656" s="3"/>
       <c r="D656" s="3"/>
@@ -20544,7 +20577,7 @@
       <c r="AA656" s="3"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="A657" s="31"/>
+      <c r="A657" s="29"/>
       <c r="B657" s="3"/>
       <c r="C657" s="3"/>
       <c r="D657" s="3"/>
@@ -20573,7 +20606,7 @@
       <c r="AA657" s="3"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="A658" s="31"/>
+      <c r="A658" s="29"/>
       <c r="B658" s="3"/>
       <c r="C658" s="3"/>
       <c r="D658" s="3"/>
@@ -20602,7 +20635,7 @@
       <c r="AA658" s="3"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="A659" s="31"/>
+      <c r="A659" s="29"/>
       <c r="B659" s="3"/>
       <c r="C659" s="3"/>
       <c r="D659" s="3"/>
@@ -20631,7 +20664,7 @@
       <c r="AA659" s="3"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="A660" s="31"/>
+      <c r="A660" s="29"/>
       <c r="B660" s="3"/>
       <c r="C660" s="3"/>
       <c r="D660" s="3"/>
@@ -20660,7 +20693,7 @@
       <c r="AA660" s="3"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="A661" s="31"/>
+      <c r="A661" s="29"/>
       <c r="B661" s="3"/>
       <c r="C661" s="3"/>
       <c r="D661" s="3"/>
@@ -20689,7 +20722,7 @@
       <c r="AA661" s="3"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="A662" s="31"/>
+      <c r="A662" s="29"/>
       <c r="B662" s="3"/>
       <c r="C662" s="3"/>
       <c r="D662" s="3"/>
@@ -20718,7 +20751,7 @@
       <c r="AA662" s="3"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="A663" s="31"/>
+      <c r="A663" s="29"/>
       <c r="B663" s="3"/>
       <c r="C663" s="3"/>
       <c r="D663" s="3"/>
@@ -20747,7 +20780,7 @@
       <c r="AA663" s="3"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="A664" s="31"/>
+      <c r="A664" s="29"/>
       <c r="B664" s="3"/>
       <c r="C664" s="3"/>
       <c r="D664" s="3"/>
@@ -20776,7 +20809,7 @@
       <c r="AA664" s="3"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="A665" s="31"/>
+      <c r="A665" s="29"/>
       <c r="B665" s="3"/>
       <c r="C665" s="3"/>
       <c r="D665" s="3"/>
@@ -20805,7 +20838,7 @@
       <c r="AA665" s="3"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="A666" s="31"/>
+      <c r="A666" s="29"/>
       <c r="B666" s="3"/>
       <c r="C666" s="3"/>
       <c r="D666" s="3"/>
@@ -20834,7 +20867,7 @@
       <c r="AA666" s="3"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="A667" s="31"/>
+      <c r="A667" s="29"/>
       <c r="B667" s="3"/>
       <c r="C667" s="3"/>
       <c r="D667" s="3"/>
@@ -20863,7 +20896,7 @@
       <c r="AA667" s="3"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="A668" s="31"/>
+      <c r="A668" s="29"/>
       <c r="B668" s="3"/>
       <c r="C668" s="3"/>
       <c r="D668" s="3"/>
@@ -20892,7 +20925,7 @@
       <c r="AA668" s="3"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="A669" s="31"/>
+      <c r="A669" s="29"/>
       <c r="B669" s="3"/>
       <c r="C669" s="3"/>
       <c r="D669" s="3"/>
@@ -20921,7 +20954,7 @@
       <c r="AA669" s="3"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="A670" s="31"/>
+      <c r="A670" s="29"/>
       <c r="B670" s="3"/>
       <c r="C670" s="3"/>
       <c r="D670" s="3"/>
@@ -20950,7 +20983,7 @@
       <c r="AA670" s="3"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="A671" s="31"/>
+      <c r="A671" s="29"/>
       <c r="B671" s="3"/>
       <c r="C671" s="3"/>
       <c r="D671" s="3"/>
@@ -20979,7 +21012,7 @@
       <c r="AA671" s="3"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="A672" s="31"/>
+      <c r="A672" s="29"/>
       <c r="B672" s="3"/>
       <c r="C672" s="3"/>
       <c r="D672" s="3"/>
@@ -21008,7 +21041,7 @@
       <c r="AA672" s="3"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="A673" s="31"/>
+      <c r="A673" s="29"/>
       <c r="B673" s="3"/>
       <c r="C673" s="3"/>
       <c r="D673" s="3"/>
@@ -21037,7 +21070,7 @@
       <c r="AA673" s="3"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="A674" s="31"/>
+      <c r="A674" s="29"/>
       <c r="B674" s="3"/>
       <c r="C674" s="3"/>
       <c r="D674" s="3"/>
@@ -21066,7 +21099,7 @@
       <c r="AA674" s="3"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="A675" s="31"/>
+      <c r="A675" s="29"/>
       <c r="B675" s="3"/>
       <c r="C675" s="3"/>
       <c r="D675" s="3"/>
@@ -21095,7 +21128,7 @@
       <c r="AA675" s="3"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="A676" s="31"/>
+      <c r="A676" s="29"/>
       <c r="B676" s="3"/>
       <c r="C676" s="3"/>
       <c r="D676" s="3"/>
@@ -21124,7 +21157,7 @@
       <c r="AA676" s="3"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="A677" s="31"/>
+      <c r="A677" s="29"/>
       <c r="B677" s="3"/>
       <c r="C677" s="3"/>
       <c r="D677" s="3"/>
@@ -21153,7 +21186,7 @@
       <c r="AA677" s="3"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="A678" s="31"/>
+      <c r="A678" s="29"/>
       <c r="B678" s="3"/>
       <c r="C678" s="3"/>
       <c r="D678" s="3"/>
@@ -21182,7 +21215,7 @@
       <c r="AA678" s="3"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="A679" s="31"/>
+      <c r="A679" s="29"/>
       <c r="B679" s="3"/>
       <c r="C679" s="3"/>
       <c r="D679" s="3"/>
@@ -21211,7 +21244,7 @@
       <c r="AA679" s="3"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="A680" s="31"/>
+      <c r="A680" s="29"/>
       <c r="B680" s="3"/>
       <c r="C680" s="3"/>
       <c r="D680" s="3"/>
@@ -21240,7 +21273,7 @@
       <c r="AA680" s="3"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="A681" s="31"/>
+      <c r="A681" s="29"/>
       <c r="B681" s="3"/>
       <c r="C681" s="3"/>
       <c r="D681" s="3"/>
@@ -21269,7 +21302,7 @@
       <c r="AA681" s="3"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="A682" s="31"/>
+      <c r="A682" s="29"/>
       <c r="B682" s="3"/>
       <c r="C682" s="3"/>
       <c r="D682" s="3"/>
@@ -21298,7 +21331,7 @@
       <c r="AA682" s="3"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="A683" s="31"/>
+      <c r="A683" s="29"/>
       <c r="B683" s="3"/>
       <c r="C683" s="3"/>
       <c r="D683" s="3"/>
@@ -21327,7 +21360,7 @@
       <c r="AA683" s="3"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="A684" s="31"/>
+      <c r="A684" s="29"/>
       <c r="B684" s="3"/>
       <c r="C684" s="3"/>
       <c r="D684" s="3"/>
@@ -21356,7 +21389,7 @@
       <c r="AA684" s="3"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="A685" s="31"/>
+      <c r="A685" s="29"/>
       <c r="B685" s="3"/>
       <c r="C685" s="3"/>
       <c r="D685" s="3"/>
@@ -21385,7 +21418,7 @@
       <c r="AA685" s="3"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="A686" s="31"/>
+      <c r="A686" s="29"/>
       <c r="B686" s="3"/>
       <c r="C686" s="3"/>
       <c r="D686" s="3"/>
@@ -21414,7 +21447,7 @@
       <c r="AA686" s="3"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="A687" s="31"/>
+      <c r="A687" s="29"/>
       <c r="B687" s="3"/>
       <c r="C687" s="3"/>
       <c r="D687" s="3"/>
@@ -21443,7 +21476,7 @@
       <c r="AA687" s="3"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="A688" s="31"/>
+      <c r="A688" s="29"/>
       <c r="B688" s="3"/>
       <c r="C688" s="3"/>
       <c r="D688" s="3"/>
@@ -21472,7 +21505,7 @@
       <c r="AA688" s="3"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="A689" s="31"/>
+      <c r="A689" s="29"/>
       <c r="B689" s="3"/>
       <c r="C689" s="3"/>
       <c r="D689" s="3"/>
@@ -21501,7 +21534,7 @@
       <c r="AA689" s="3"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="A690" s="31"/>
+      <c r="A690" s="29"/>
       <c r="B690" s="3"/>
       <c r="C690" s="3"/>
       <c r="D690" s="3"/>
@@ -21530,7 +21563,7 @@
       <c r="AA690" s="3"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="A691" s="31"/>
+      <c r="A691" s="29"/>
       <c r="B691" s="3"/>
       <c r="C691" s="3"/>
       <c r="D691" s="3"/>
@@ -21559,7 +21592,7 @@
       <c r="AA691" s="3"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="A692" s="31"/>
+      <c r="A692" s="29"/>
       <c r="B692" s="3"/>
       <c r="C692" s="3"/>
       <c r="D692" s="3"/>
@@ -21588,7 +21621,7 @@
       <c r="AA692" s="3"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="A693" s="31"/>
+      <c r="A693" s="29"/>
       <c r="B693" s="3"/>
       <c r="C693" s="3"/>
       <c r="D693" s="3"/>
@@ -21617,7 +21650,7 @@
       <c r="AA693" s="3"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="A694" s="31"/>
+      <c r="A694" s="29"/>
       <c r="B694" s="3"/>
       <c r="C694" s="3"/>
       <c r="D694" s="3"/>
@@ -21646,7 +21679,7 @@
       <c r="AA694" s="3"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="A695" s="31"/>
+      <c r="A695" s="29"/>
       <c r="B695" s="3"/>
       <c r="C695" s="3"/>
       <c r="D695" s="3"/>
@@ -21675,7 +21708,7 @@
       <c r="AA695" s="3"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="A696" s="31"/>
+      <c r="A696" s="29"/>
       <c r="B696" s="3"/>
       <c r="C696" s="3"/>
       <c r="D696" s="3"/>
@@ -21704,7 +21737,7 @@
       <c r="AA696" s="3"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="A697" s="31"/>
+      <c r="A697" s="29"/>
       <c r="B697" s="3"/>
       <c r="C697" s="3"/>
       <c r="D697" s="3"/>
@@ -21733,7 +21766,7 @@
       <c r="AA697" s="3"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="A698" s="31"/>
+      <c r="A698" s="29"/>
       <c r="B698" s="3"/>
       <c r="C698" s="3"/>
       <c r="D698" s="3"/>
@@ -21762,7 +21795,7 @@
       <c r="AA698" s="3"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="A699" s="31"/>
+      <c r="A699" s="29"/>
       <c r="B699" s="3"/>
       <c r="C699" s="3"/>
       <c r="D699" s="3"/>
@@ -21791,7 +21824,7 @@
       <c r="AA699" s="3"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="A700" s="31"/>
+      <c r="A700" s="29"/>
       <c r="B700" s="3"/>
       <c r="C700" s="3"/>
       <c r="D700" s="3"/>
@@ -21820,7 +21853,7 @@
       <c r="AA700" s="3"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="A701" s="31"/>
+      <c r="A701" s="29"/>
       <c r="B701" s="3"/>
       <c r="C701" s="3"/>
       <c r="D701" s="3"/>
@@ -21849,7 +21882,7 @@
       <c r="AA701" s="3"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="A702" s="31"/>
+      <c r="A702" s="29"/>
       <c r="B702" s="3"/>
       <c r="C702" s="3"/>
       <c r="D702" s="3"/>
@@ -21878,7 +21911,7 @@
       <c r="AA702" s="3"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="A703" s="31"/>
+      <c r="A703" s="29"/>
       <c r="B703" s="3"/>
       <c r="C703" s="3"/>
       <c r="D703" s="3"/>
@@ -21907,7 +21940,7 @@
       <c r="AA703" s="3"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="A704" s="31"/>
+      <c r="A704" s="29"/>
       <c r="B704" s="3"/>
       <c r="C704" s="3"/>
       <c r="D704" s="3"/>
@@ -21936,7 +21969,7 @@
       <c r="AA704" s="3"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="A705" s="31"/>
+      <c r="A705" s="29"/>
       <c r="B705" s="3"/>
       <c r="C705" s="3"/>
       <c r="D705" s="3"/>
@@ -21965,7 +21998,7 @@
       <c r="AA705" s="3"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="A706" s="31"/>
+      <c r="A706" s="29"/>
       <c r="B706" s="3"/>
       <c r="C706" s="3"/>
       <c r="D706" s="3"/>
@@ -21994,7 +22027,7 @@
       <c r="AA706" s="3"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="A707" s="31"/>
+      <c r="A707" s="29"/>
       <c r="B707" s="3"/>
       <c r="C707" s="3"/>
       <c r="D707" s="3"/>
@@ -22023,7 +22056,7 @@
       <c r="AA707" s="3"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="A708" s="31"/>
+      <c r="A708" s="29"/>
       <c r="B708" s="3"/>
       <c r="C708" s="3"/>
       <c r="D708" s="3"/>
@@ -22052,7 +22085,7 @@
       <c r="AA708" s="3"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="A709" s="31"/>
+      <c r="A709" s="29"/>
       <c r="B709" s="3"/>
       <c r="C709" s="3"/>
       <c r="D709" s="3"/>
@@ -22081,7 +22114,7 @@
       <c r="AA709" s="3"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="A710" s="31"/>
+      <c r="A710" s="29"/>
       <c r="B710" s="3"/>
       <c r="C710" s="3"/>
       <c r="D710" s="3"/>
@@ -22110,7 +22143,7 @@
       <c r="AA710" s="3"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="A711" s="31"/>
+      <c r="A711" s="29"/>
       <c r="B711" s="3"/>
       <c r="C711" s="3"/>
       <c r="D711" s="3"/>
@@ -22139,7 +22172,7 @@
       <c r="AA711" s="3"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="A712" s="31"/>
+      <c r="A712" s="29"/>
       <c r="B712" s="3"/>
       <c r="C712" s="3"/>
       <c r="D712" s="3"/>
@@ -22168,7 +22201,7 @@
       <c r="AA712" s="3"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="A713" s="31"/>
+      <c r="A713" s="29"/>
       <c r="B713" s="3"/>
       <c r="C713" s="3"/>
       <c r="D713" s="3"/>
@@ -22197,7 +22230,7 @@
       <c r="AA713" s="3"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="A714" s="31"/>
+      <c r="A714" s="29"/>
       <c r="B714" s="3"/>
       <c r="C714" s="3"/>
       <c r="D714" s="3"/>
@@ -22226,7 +22259,7 @@
       <c r="AA714" s="3"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="A715" s="31"/>
+      <c r="A715" s="29"/>
       <c r="B715" s="3"/>
       <c r="C715" s="3"/>
       <c r="D715" s="3"/>
@@ -22255,7 +22288,7 @@
       <c r="AA715" s="3"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="A716" s="31"/>
+      <c r="A716" s="29"/>
       <c r="B716" s="3"/>
       <c r="C716" s="3"/>
       <c r="D716" s="3"/>
@@ -22284,7 +22317,7 @@
       <c r="AA716" s="3"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="A717" s="31"/>
+      <c r="A717" s="29"/>
       <c r="B717" s="3"/>
       <c r="C717" s="3"/>
       <c r="D717" s="3"/>
@@ -22313,7 +22346,7 @@
       <c r="AA717" s="3"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="A718" s="31"/>
+      <c r="A718" s="29"/>
       <c r="B718" s="3"/>
       <c r="C718" s="3"/>
       <c r="D718" s="3"/>
@@ -22342,7 +22375,7 @@
       <c r="AA718" s="3"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="A719" s="31"/>
+      <c r="A719" s="29"/>
       <c r="B719" s="3"/>
       <c r="C719" s="3"/>
       <c r="D719" s="3"/>
@@ -22371,7 +22404,7 @@
       <c r="AA719" s="3"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="A720" s="31"/>
+      <c r="A720" s="29"/>
       <c r="B720" s="3"/>
       <c r="C720" s="3"/>
       <c r="D720" s="3"/>
@@ -22400,7 +22433,7 @@
       <c r="AA720" s="3"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="A721" s="31"/>
+      <c r="A721" s="29"/>
       <c r="B721" s="3"/>
       <c r="C721" s="3"/>
       <c r="D721" s="3"/>
@@ -22429,7 +22462,7 @@
       <c r="AA721" s="3"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="A722" s="31"/>
+      <c r="A722" s="29"/>
       <c r="B722" s="3"/>
       <c r="C722" s="3"/>
       <c r="D722" s="3"/>
@@ -22458,7 +22491,7 @@
       <c r="AA722" s="3"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="A723" s="31"/>
+      <c r="A723" s="29"/>
       <c r="B723" s="3"/>
       <c r="C723" s="3"/>
       <c r="D723" s="3"/>
@@ -22487,7 +22520,7 @@
       <c r="AA723" s="3"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="A724" s="31"/>
+      <c r="A724" s="29"/>
       <c r="B724" s="3"/>
       <c r="C724" s="3"/>
       <c r="D724" s="3"/>
@@ -22516,7 +22549,7 @@
       <c r="AA724" s="3"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="A725" s="31"/>
+      <c r="A725" s="29"/>
       <c r="B725" s="3"/>
       <c r="C725" s="3"/>
       <c r="D725" s="3"/>
@@ -22545,7 +22578,7 @@
       <c r="AA725" s="3"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="A726" s="31"/>
+      <c r="A726" s="29"/>
       <c r="B726" s="3"/>
       <c r="C726" s="3"/>
       <c r="D726" s="3"/>
@@ -22574,7 +22607,7 @@
       <c r="AA726" s="3"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="A727" s="31"/>
+      <c r="A727" s="29"/>
       <c r="B727" s="3"/>
       <c r="C727" s="3"/>
       <c r="D727" s="3"/>
@@ -22603,7 +22636,7 @@
       <c r="AA727" s="3"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="A728" s="31"/>
+      <c r="A728" s="29"/>
       <c r="B728" s="3"/>
       <c r="C728" s="3"/>
       <c r="D728" s="3"/>
@@ -22632,7 +22665,7 @@
       <c r="AA728" s="3"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="A729" s="31"/>
+      <c r="A729" s="29"/>
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
       <c r="D729" s="3"/>
@@ -22661,7 +22694,7 @@
       <c r="AA729" s="3"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="A730" s="31"/>
+      <c r="A730" s="29"/>
       <c r="B730" s="3"/>
       <c r="C730" s="3"/>
       <c r="D730" s="3"/>
@@ -22690,7 +22723,7 @@
       <c r="AA730" s="3"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="A731" s="31"/>
+      <c r="A731" s="29"/>
       <c r="B731" s="3"/>
       <c r="C731" s="3"/>
       <c r="D731" s="3"/>
@@ -22719,7 +22752,7 @@
       <c r="AA731" s="3"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="A732" s="31"/>
+      <c r="A732" s="29"/>
       <c r="B732" s="3"/>
       <c r="C732" s="3"/>
       <c r="D732" s="3"/>
@@ -22748,7 +22781,7 @@
       <c r="AA732" s="3"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="A733" s="31"/>
+      <c r="A733" s="29"/>
       <c r="B733" s="3"/>
       <c r="C733" s="3"/>
       <c r="D733" s="3"/>
@@ -22777,7 +22810,7 @@
       <c r="AA733" s="3"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="A734" s="31"/>
+      <c r="A734" s="29"/>
       <c r="B734" s="3"/>
       <c r="C734" s="3"/>
       <c r="D734" s="3"/>
@@ -22806,7 +22839,7 @@
       <c r="AA734" s="3"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="A735" s="31"/>
+      <c r="A735" s="29"/>
       <c r="B735" s="3"/>
       <c r="C735" s="3"/>
       <c r="D735" s="3"/>
@@ -22835,7 +22868,7 @@
       <c r="AA735" s="3"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="A736" s="31"/>
+      <c r="A736" s="29"/>
       <c r="B736" s="3"/>
       <c r="C736" s="3"/>
       <c r="D736" s="3"/>
@@ -22864,7 +22897,7 @@
       <c r="AA736" s="3"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="A737" s="31"/>
+      <c r="A737" s="29"/>
       <c r="B737" s="3"/>
       <c r="C737" s="3"/>
       <c r="D737" s="3"/>
@@ -22893,7 +22926,7 @@
       <c r="AA737" s="3"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="A738" s="31"/>
+      <c r="A738" s="29"/>
       <c r="B738" s="3"/>
       <c r="C738" s="3"/>
       <c r="D738" s="3"/>
@@ -22922,7 +22955,7 @@
       <c r="AA738" s="3"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="A739" s="31"/>
+      <c r="A739" s="29"/>
       <c r="B739" s="3"/>
       <c r="C739" s="3"/>
       <c r="D739" s="3"/>
@@ -22951,7 +22984,7 @@
       <c r="AA739" s="3"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="A740" s="31"/>
+      <c r="A740" s="29"/>
       <c r="B740" s="3"/>
       <c r="C740" s="3"/>
       <c r="D740" s="3"/>
@@ -22980,7 +23013,7 @@
       <c r="AA740" s="3"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="A741" s="31"/>
+      <c r="A741" s="29"/>
       <c r="B741" s="3"/>
       <c r="C741" s="3"/>
       <c r="D741" s="3"/>
@@ -23009,7 +23042,7 @@
       <c r="AA741" s="3"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="A742" s="31"/>
+      <c r="A742" s="29"/>
       <c r="B742" s="3"/>
       <c r="C742" s="3"/>
       <c r="D742" s="3"/>
@@ -23038,7 +23071,7 @@
       <c r="AA742" s="3"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="A743" s="31"/>
+      <c r="A743" s="29"/>
       <c r="B743" s="3"/>
       <c r="C743" s="3"/>
       <c r="D743" s="3"/>
@@ -23067,7 +23100,7 @@
       <c r="AA743" s="3"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="A744" s="31"/>
+      <c r="A744" s="29"/>
       <c r="B744" s="3"/>
       <c r="C744" s="3"/>
       <c r="D744" s="3"/>
@@ -23096,7 +23129,7 @@
       <c r="AA744" s="3"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="A745" s="31"/>
+      <c r="A745" s="29"/>
       <c r="B745" s="3"/>
       <c r="C745" s="3"/>
       <c r="D745" s="3"/>
@@ -23125,7 +23158,7 @@
       <c r="AA745" s="3"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="A746" s="31"/>
+      <c r="A746" s="29"/>
       <c r="B746" s="3"/>
       <c r="C746" s="3"/>
       <c r="D746" s="3"/>
@@ -23154,7 +23187,7 @@
       <c r="AA746" s="3"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="A747" s="31"/>
+      <c r="A747" s="29"/>
       <c r="B747" s="3"/>
       <c r="C747" s="3"/>
       <c r="D747" s="3"/>
@@ -23183,7 +23216,7 @@
       <c r="AA747" s="3"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="A748" s="31"/>
+      <c r="A748" s="29"/>
       <c r="B748" s="3"/>
       <c r="C748" s="3"/>
       <c r="D748" s="3"/>
@@ -23212,7 +23245,7 @@
       <c r="AA748" s="3"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="A749" s="31"/>
+      <c r="A749" s="29"/>
       <c r="B749" s="3"/>
       <c r="C749" s="3"/>
       <c r="D749" s="3"/>
@@ -23241,7 +23274,7 @@
       <c r="AA749" s="3"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="A750" s="31"/>
+      <c r="A750" s="29"/>
       <c r="B750" s="3"/>
       <c r="C750" s="3"/>
       <c r="D750" s="3"/>
@@ -23270,7 +23303,7 @@
       <c r="AA750" s="3"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="A751" s="31"/>
+      <c r="A751" s="29"/>
       <c r="B751" s="3"/>
       <c r="C751" s="3"/>
       <c r="D751" s="3"/>
@@ -23299,7 +23332,7 @@
       <c r="AA751" s="3"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="A752" s="31"/>
+      <c r="A752" s="29"/>
       <c r="B752" s="3"/>
       <c r="C752" s="3"/>
       <c r="D752" s="3"/>
@@ -23328,7 +23361,7 @@
       <c r="AA752" s="3"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="A753" s="31"/>
+      <c r="A753" s="29"/>
       <c r="B753" s="3"/>
       <c r="C753" s="3"/>
       <c r="D753" s="3"/>
@@ -23357,7 +23390,7 @@
       <c r="AA753" s="3"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="A754" s="31"/>
+      <c r="A754" s="29"/>
       <c r="B754" s="3"/>
       <c r="C754" s="3"/>
       <c r="D754" s="3"/>
@@ -23386,7 +23419,7 @@
       <c r="AA754" s="3"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="A755" s="31"/>
+      <c r="A755" s="29"/>
       <c r="B755" s="3"/>
       <c r="C755" s="3"/>
       <c r="D755" s="3"/>
@@ -23415,7 +23448,7 @@
       <c r="AA755" s="3"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="A756" s="31"/>
+      <c r="A756" s="29"/>
       <c r="B756" s="3"/>
       <c r="C756" s="3"/>
       <c r="D756" s="3"/>
@@ -23444,7 +23477,7 @@
       <c r="AA756" s="3"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="A757" s="31"/>
+      <c r="A757" s="29"/>
       <c r="B757" s="3"/>
       <c r="C757" s="3"/>
       <c r="D757" s="3"/>
@@ -23473,7 +23506,7 @@
       <c r="AA757" s="3"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="A758" s="31"/>
+      <c r="A758" s="29"/>
       <c r="B758" s="3"/>
       <c r="C758" s="3"/>
       <c r="D758" s="3"/>
@@ -23502,7 +23535,7 @@
       <c r="AA758" s="3"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="A759" s="31"/>
+      <c r="A759" s="29"/>
       <c r="B759" s="3"/>
       <c r="C759" s="3"/>
       <c r="D759" s="3"/>
@@ -23531,7 +23564,7 @@
       <c r="AA759" s="3"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="A760" s="31"/>
+      <c r="A760" s="29"/>
       <c r="B760" s="3"/>
       <c r="C760" s="3"/>
       <c r="D760" s="3"/>
@@ -23560,7 +23593,7 @@
       <c r="AA760" s="3"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="A761" s="31"/>
+      <c r="A761" s="29"/>
       <c r="B761" s="3"/>
       <c r="C761" s="3"/>
       <c r="D761" s="3"/>
@@ -23589,7 +23622,7 @@
       <c r="AA761" s="3"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="A762" s="31"/>
+      <c r="A762" s="29"/>
       <c r="B762" s="3"/>
       <c r="C762" s="3"/>
       <c r="D762" s="3"/>
@@ -23618,7 +23651,7 @@
       <c r="AA762" s="3"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="A763" s="31"/>
+      <c r="A763" s="29"/>
       <c r="B763" s="3"/>
       <c r="C763" s="3"/>
       <c r="D763" s="3"/>
@@ -23647,7 +23680,7 @@
       <c r="AA763" s="3"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="A764" s="31"/>
+      <c r="A764" s="29"/>
       <c r="B764" s="3"/>
       <c r="C764" s="3"/>
       <c r="D764" s="3"/>
@@ -23676,7 +23709,7 @@
       <c r="AA764" s="3"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="A765" s="31"/>
+      <c r="A765" s="29"/>
       <c r="B765" s="3"/>
       <c r="C765" s="3"/>
       <c r="D765" s="3"/>
@@ -23705,7 +23738,7 @@
       <c r="AA765" s="3"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="A766" s="31"/>
+      <c r="A766" s="29"/>
       <c r="B766" s="3"/>
       <c r="C766" s="3"/>
       <c r="D766" s="3"/>
@@ -23734,7 +23767,7 @@
       <c r="AA766" s="3"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="A767" s="31"/>
+      <c r="A767" s="29"/>
       <c r="B767" s="3"/>
       <c r="C767" s="3"/>
       <c r="D767" s="3"/>
@@ -23763,7 +23796,7 @@
       <c r="AA767" s="3"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="A768" s="31"/>
+      <c r="A768" s="29"/>
       <c r="B768" s="3"/>
       <c r="C768" s="3"/>
       <c r="D768" s="3"/>
@@ -23792,7 +23825,7 @@
       <c r="AA768" s="3"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="A769" s="31"/>
+      <c r="A769" s="29"/>
       <c r="B769" s="3"/>
       <c r="C769" s="3"/>
       <c r="D769" s="3"/>
@@ -23821,7 +23854,7 @@
       <c r="AA769" s="3"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="A770" s="31"/>
+      <c r="A770" s="29"/>
       <c r="B770" s="3"/>
       <c r="C770" s="3"/>
       <c r="D770" s="3"/>
@@ -23850,7 +23883,7 @@
       <c r="AA770" s="3"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="A771" s="31"/>
+      <c r="A771" s="29"/>
       <c r="B771" s="3"/>
       <c r="C771" s="3"/>
       <c r="D771" s="3"/>
@@ -23879,7 +23912,7 @@
       <c r="AA771" s="3"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="A772" s="31"/>
+      <c r="A772" s="29"/>
       <c r="B772" s="3"/>
       <c r="C772" s="3"/>
       <c r="D772" s="3"/>
@@ -23908,7 +23941,7 @@
       <c r="AA772" s="3"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="A773" s="31"/>
+      <c r="A773" s="29"/>
       <c r="B773" s="3"/>
       <c r="C773" s="3"/>
       <c r="D773" s="3"/>
@@ -23937,7 +23970,7 @@
       <c r="AA773" s="3"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="A774" s="31"/>
+      <c r="A774" s="29"/>
       <c r="B774" s="3"/>
       <c r="C774" s="3"/>
       <c r="D774" s="3"/>
@@ -23966,7 +23999,7 @@
       <c r="AA774" s="3"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="A775" s="31"/>
+      <c r="A775" s="29"/>
       <c r="B775" s="3"/>
       <c r="C775" s="3"/>
       <c r="D775" s="3"/>
@@ -23995,7 +24028,7 @@
       <c r="AA775" s="3"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="A776" s="31"/>
+      <c r="A776" s="29"/>
       <c r="B776" s="3"/>
       <c r="C776" s="3"/>
       <c r="D776" s="3"/>
@@ -24024,7 +24057,7 @@
       <c r="AA776" s="3"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="A777" s="31"/>
+      <c r="A777" s="29"/>
       <c r="B777" s="3"/>
       <c r="C777" s="3"/>
       <c r="D777" s="3"/>
@@ -24053,7 +24086,7 @@
       <c r="AA777" s="3"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="A778" s="31"/>
+      <c r="A778" s="29"/>
       <c r="B778" s="3"/>
       <c r="C778" s="3"/>
       <c r="D778" s="3"/>
@@ -24082,7 +24115,7 @@
       <c r="AA778" s="3"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="A779" s="31"/>
+      <c r="A779" s="29"/>
       <c r="B779" s="3"/>
       <c r="C779" s="3"/>
       <c r="D779" s="3"/>
@@ -24111,7 +24144,7 @@
       <c r="AA779" s="3"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="A780" s="31"/>
+      <c r="A780" s="29"/>
       <c r="B780" s="3"/>
       <c r="C780" s="3"/>
       <c r="D780" s="3"/>
@@ -24140,7 +24173,7 @@
       <c r="AA780" s="3"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="A781" s="31"/>
+      <c r="A781" s="29"/>
       <c r="B781" s="3"/>
       <c r="C781" s="3"/>
       <c r="D781" s="3"/>
@@ -24169,7 +24202,7 @@
       <c r="AA781" s="3"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="A782" s="31"/>
+      <c r="A782" s="29"/>
       <c r="B782" s="3"/>
       <c r="C782" s="3"/>
       <c r="D782" s="3"/>
@@ -24198,7 +24231,7 @@
       <c r="AA782" s="3"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="A783" s="31"/>
+      <c r="A783" s="29"/>
       <c r="B783" s="3"/>
       <c r="C783" s="3"/>
       <c r="D783" s="3"/>
@@ -24227,7 +24260,7 @@
       <c r="AA783" s="3"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="A784" s="31"/>
+      <c r="A784" s="29"/>
       <c r="B784" s="3"/>
       <c r="C784" s="3"/>
       <c r="D784" s="3"/>
@@ -24256,7 +24289,7 @@
       <c r="AA784" s="3"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="A785" s="31"/>
+      <c r="A785" s="29"/>
       <c r="B785" s="3"/>
       <c r="C785" s="3"/>
       <c r="D785" s="3"/>
@@ -24285,7 +24318,7 @@
       <c r="AA785" s="3"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="A786" s="31"/>
+      <c r="A786" s="29"/>
       <c r="B786" s="3"/>
       <c r="C786" s="3"/>
       <c r="D786" s="3"/>
@@ -24314,7 +24347,7 @@
       <c r="AA786" s="3"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="A787" s="31"/>
+      <c r="A787" s="29"/>
       <c r="B787" s="3"/>
       <c r="C787" s="3"/>
       <c r="D787" s="3"/>
@@ -24343,7 +24376,7 @@
       <c r="AA787" s="3"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="A788" s="31"/>
+      <c r="A788" s="29"/>
       <c r="B788" s="3"/>
       <c r="C788" s="3"/>
       <c r="D788" s="3"/>
@@ -24372,7 +24405,7 @@
       <c r="AA788" s="3"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="A789" s="31"/>
+      <c r="A789" s="29"/>
       <c r="B789" s="3"/>
       <c r="C789" s="3"/>
       <c r="D789" s="3"/>
@@ -24401,7 +24434,7 @@
       <c r="AA789" s="3"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="A790" s="31"/>
+      <c r="A790" s="29"/>
       <c r="B790" s="3"/>
       <c r="C790" s="3"/>
       <c r="D790" s="3"/>
@@ -24430,7 +24463,7 @@
       <c r="AA790" s="3"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="A791" s="31"/>
+      <c r="A791" s="29"/>
       <c r="B791" s="3"/>
       <c r="C791" s="3"/>
       <c r="D791" s="3"/>
@@ -24459,7 +24492,7 @@
       <c r="AA791" s="3"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="A792" s="31"/>
+      <c r="A792" s="29"/>
       <c r="B792" s="3"/>
       <c r="C792" s="3"/>
       <c r="D792" s="3"/>
@@ -24488,7 +24521,7 @@
       <c r="AA792" s="3"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="A793" s="31"/>
+      <c r="A793" s="29"/>
       <c r="B793" s="3"/>
       <c r="C793" s="3"/>
       <c r="D793" s="3"/>
@@ -24517,7 +24550,7 @@
       <c r="AA793" s="3"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="A794" s="31"/>
+      <c r="A794" s="29"/>
       <c r="B794" s="3"/>
       <c r="C794" s="3"/>
       <c r="D794" s="3"/>
@@ -24546,7 +24579,7 @@
       <c r="AA794" s="3"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="A795" s="31"/>
+      <c r="A795" s="29"/>
       <c r="B795" s="3"/>
       <c r="C795" s="3"/>
       <c r="D795" s="3"/>
@@ -24575,7 +24608,7 @@
       <c r="AA795" s="3"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="A796" s="31"/>
+      <c r="A796" s="29"/>
       <c r="B796" s="3"/>
       <c r="C796" s="3"/>
       <c r="D796" s="3"/>
@@ -24604,7 +24637,7 @@
       <c r="AA796" s="3"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="A797" s="31"/>
+      <c r="A797" s="29"/>
       <c r="B797" s="3"/>
       <c r="C797" s="3"/>
       <c r="D797" s="3"/>
@@ -24633,7 +24666,7 @@
       <c r="AA797" s="3"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="A798" s="31"/>
+      <c r="A798" s="29"/>
       <c r="B798" s="3"/>
       <c r="C798" s="3"/>
       <c r="D798" s="3"/>
@@ -24662,7 +24695,7 @@
       <c r="AA798" s="3"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="A799" s="31"/>
+      <c r="A799" s="29"/>
       <c r="B799" s="3"/>
       <c r="C799" s="3"/>
       <c r="D799" s="3"/>
@@ -24691,7 +24724,7 @@
       <c r="AA799" s="3"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="A800" s="31"/>
+      <c r="A800" s="29"/>
       <c r="B800" s="3"/>
       <c r="C800" s="3"/>
       <c r="D800" s="3"/>
@@ -24720,7 +24753,7 @@
       <c r="AA800" s="3"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="A801" s="31"/>
+      <c r="A801" s="29"/>
       <c r="B801" s="3"/>
       <c r="C801" s="3"/>
       <c r="D801" s="3"/>
@@ -24749,7 +24782,7 @@
       <c r="AA801" s="3"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="A802" s="31"/>
+      <c r="A802" s="29"/>
       <c r="B802" s="3"/>
       <c r="C802" s="3"/>
       <c r="D802" s="3"/>
@@ -24778,7 +24811,7 @@
       <c r="AA802" s="3"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="A803" s="31"/>
+      <c r="A803" s="29"/>
       <c r="B803" s="3"/>
       <c r="C803" s="3"/>
       <c r="D803" s="3"/>
@@ -24807,7 +24840,7 @@
       <c r="AA803" s="3"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="A804" s="31"/>
+      <c r="A804" s="29"/>
       <c r="B804" s="3"/>
       <c r="C804" s="3"/>
       <c r="D804" s="3"/>
@@ -24836,7 +24869,7 @@
       <c r="AA804" s="3"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="A805" s="31"/>
+      <c r="A805" s="29"/>
       <c r="B805" s="3"/>
       <c r="C805" s="3"/>
       <c r="D805" s="3"/>
@@ -24865,7 +24898,7 @@
       <c r="AA805" s="3"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="A806" s="31"/>
+      <c r="A806" s="29"/>
       <c r="B806" s="3"/>
       <c r="C806" s="3"/>
       <c r="D806" s="3"/>
@@ -24894,7 +24927,7 @@
       <c r="AA806" s="3"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="A807" s="31"/>
+      <c r="A807" s="29"/>
       <c r="B807" s="3"/>
       <c r="C807" s="3"/>
       <c r="D807" s="3"/>
@@ -24923,7 +24956,7 @@
       <c r="AA807" s="3"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="A808" s="31"/>
+      <c r="A808" s="29"/>
       <c r="B808" s="3"/>
       <c r="C808" s="3"/>
       <c r="D808" s="3"/>
@@ -24952,7 +24985,7 @@
       <c r="AA808" s="3"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="A809" s="31"/>
+      <c r="A809" s="29"/>
       <c r="B809" s="3"/>
       <c r="C809" s="3"/>
       <c r="D809" s="3"/>
@@ -24981,7 +25014,7 @@
       <c r="AA809" s="3"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="A810" s="31"/>
+      <c r="A810" s="29"/>
       <c r="B810" s="3"/>
       <c r="C810" s="3"/>
       <c r="D810" s="3"/>
@@ -25010,7 +25043,7 @@
       <c r="AA810" s="3"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="A811" s="31"/>
+      <c r="A811" s="29"/>
       <c r="B811" s="3"/>
       <c r="C811" s="3"/>
       <c r="D811" s="3"/>
@@ -25039,7 +25072,7 @@
       <c r="AA811" s="3"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="A812" s="31"/>
+      <c r="A812" s="29"/>
       <c r="B812" s="3"/>
       <c r="C812" s="3"/>
       <c r="D812" s="3"/>
@@ -25068,7 +25101,7 @@
       <c r="AA812" s="3"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="A813" s="31"/>
+      <c r="A813" s="29"/>
       <c r="B813" s="3"/>
       <c r="C813" s="3"/>
       <c r="D813" s="3"/>
@@ -25097,7 +25130,7 @@
       <c r="AA813" s="3"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="A814" s="31"/>
+      <c r="A814" s="29"/>
       <c r="B814" s="3"/>
       <c r="C814" s="3"/>
       <c r="D814" s="3"/>
@@ -25126,7 +25159,7 @@
       <c r="AA814" s="3"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="A815" s="31"/>
+      <c r="A815" s="29"/>
       <c r="B815" s="3"/>
       <c r="C815" s="3"/>
       <c r="D815" s="3"/>
@@ -25155,7 +25188,7 @@
       <c r="AA815" s="3"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="A816" s="31"/>
+      <c r="A816" s="29"/>
       <c r="B816" s="3"/>
       <c r="C816" s="3"/>
       <c r="D816" s="3"/>
@@ -25184,7 +25217,7 @@
       <c r="AA816" s="3"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="A817" s="31"/>
+      <c r="A817" s="29"/>
       <c r="B817" s="3"/>
       <c r="C817" s="3"/>
       <c r="D817" s="3"/>
@@ -25213,7 +25246,7 @@
       <c r="AA817" s="3"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="A818" s="31"/>
+      <c r="A818" s="29"/>
       <c r="B818" s="3"/>
       <c r="C818" s="3"/>
       <c r="D818" s="3"/>
@@ -25242,7 +25275,7 @@
       <c r="AA818" s="3"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="A819" s="31"/>
+      <c r="A819" s="29"/>
       <c r="B819" s="3"/>
       <c r="C819" s="3"/>
       <c r="D819" s="3"/>
@@ -25271,7 +25304,7 @@
       <c r="AA819" s="3"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="A820" s="31"/>
+      <c r="A820" s="29"/>
       <c r="B820" s="3"/>
       <c r="C820" s="3"/>
       <c r="D820" s="3"/>
@@ -25300,7 +25333,7 @@
       <c r="AA820" s="3"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="A821" s="31"/>
+      <c r="A821" s="29"/>
       <c r="B821" s="3"/>
       <c r="C821" s="3"/>
       <c r="D821" s="3"/>
@@ -25329,7 +25362,7 @@
       <c r="AA821" s="3"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="A822" s="31"/>
+      <c r="A822" s="29"/>
       <c r="B822" s="3"/>
       <c r="C822" s="3"/>
       <c r="D822" s="3"/>
@@ -25358,7 +25391,7 @@
       <c r="AA822" s="3"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="A823" s="31"/>
+      <c r="A823" s="29"/>
       <c r="B823" s="3"/>
       <c r="C823" s="3"/>
       <c r="D823" s="3"/>
@@ -25387,7 +25420,7 @@
       <c r="AA823" s="3"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="A824" s="31"/>
+      <c r="A824" s="29"/>
       <c r="B824" s="3"/>
       <c r="C824" s="3"/>
       <c r="D824" s="3"/>
@@ -25416,7 +25449,7 @@
       <c r="AA824" s="3"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="A825" s="31"/>
+      <c r="A825" s="29"/>
       <c r="B825" s="3"/>
       <c r="C825" s="3"/>
       <c r="D825" s="3"/>
@@ -25445,7 +25478,7 @@
       <c r="AA825" s="3"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="A826" s="31"/>
+      <c r="A826" s="29"/>
       <c r="B826" s="3"/>
       <c r="C826" s="3"/>
       <c r="D826" s="3"/>
@@ -25474,7 +25507,7 @@
       <c r="AA826" s="3"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="A827" s="31"/>
+      <c r="A827" s="29"/>
       <c r="B827" s="3"/>
       <c r="C827" s="3"/>
       <c r="D827" s="3"/>
@@ -25503,7 +25536,7 @@
       <c r="AA827" s="3"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="A828" s="31"/>
+      <c r="A828" s="29"/>
       <c r="B828" s="3"/>
       <c r="C828" s="3"/>
       <c r="D828" s="3"/>
@@ -25532,7 +25565,7 @@
       <c r="AA828" s="3"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="A829" s="31"/>
+      <c r="A829" s="29"/>
       <c r="B829" s="3"/>
       <c r="C829" s="3"/>
       <c r="D829" s="3"/>
@@ -25561,7 +25594,7 @@
       <c r="AA829" s="3"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="A830" s="31"/>
+      <c r="A830" s="29"/>
       <c r="B830" s="3"/>
       <c r="C830" s="3"/>
       <c r="D830" s="3"/>
@@ -25590,7 +25623,7 @@
       <c r="AA830" s="3"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="A831" s="31"/>
+      <c r="A831" s="29"/>
       <c r="B831" s="3"/>
       <c r="C831" s="3"/>
       <c r="D831" s="3"/>
@@ -25619,7 +25652,7 @@
       <c r="AA831" s="3"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="A832" s="31"/>
+      <c r="A832" s="29"/>
       <c r="B832" s="3"/>
       <c r="C832" s="3"/>
       <c r="D832" s="3"/>
@@ -25648,7 +25681,7 @@
       <c r="AA832" s="3"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="A833" s="31"/>
+      <c r="A833" s="29"/>
       <c r="B833" s="3"/>
       <c r="C833" s="3"/>
       <c r="D833" s="3"/>
@@ -25677,7 +25710,7 @@
       <c r="AA833" s="3"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="A834" s="31"/>
+      <c r="A834" s="29"/>
       <c r="B834" s="3"/>
       <c r="C834" s="3"/>
       <c r="D834" s="3"/>
@@ -25706,7 +25739,7 @@
       <c r="AA834" s="3"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="A835" s="31"/>
+      <c r="A835" s="29"/>
       <c r="B835" s="3"/>
       <c r="C835" s="3"/>
       <c r="D835" s="3"/>
@@ -25735,7 +25768,7 @@
       <c r="AA835" s="3"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="A836" s="31"/>
+      <c r="A836" s="29"/>
       <c r="B836" s="3"/>
       <c r="C836" s="3"/>
       <c r="D836" s="3"/>
@@ -25764,7 +25797,7 @@
       <c r="AA836" s="3"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="A837" s="31"/>
+      <c r="A837" s="29"/>
       <c r="B837" s="3"/>
       <c r="C837" s="3"/>
       <c r="D837" s="3"/>
@@ -25793,7 +25826,7 @@
       <c r="AA837" s="3"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="A838" s="31"/>
+      <c r="A838" s="29"/>
       <c r="B838" s="3"/>
       <c r="C838" s="3"/>
       <c r="D838" s="3"/>
@@ -25822,7 +25855,7 @@
       <c r="AA838" s="3"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="A839" s="31"/>
+      <c r="A839" s="29"/>
       <c r="B839" s="3"/>
       <c r="C839" s="3"/>
       <c r="D839" s="3"/>
@@ -25851,7 +25884,7 @@
       <c r="AA839" s="3"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="A840" s="31"/>
+      <c r="A840" s="29"/>
       <c r="B840" s="3"/>
       <c r="C840" s="3"/>
       <c r="D840" s="3"/>
@@ -25880,7 +25913,7 @@
       <c r="AA840" s="3"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="A841" s="31"/>
+      <c r="A841" s="29"/>
       <c r="B841" s="3"/>
       <c r="C841" s="3"/>
       <c r="D841" s="3"/>
@@ -25909,7 +25942,7 @@
       <c r="AA841" s="3"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="A842" s="31"/>
+      <c r="A842" s="29"/>
       <c r="B842" s="3"/>
       <c r="C842" s="3"/>
       <c r="D842" s="3"/>
@@ -25938,7 +25971,7 @@
       <c r="AA842" s="3"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="A843" s="31"/>
+      <c r="A843" s="29"/>
       <c r="B843" s="3"/>
       <c r="C843" s="3"/>
       <c r="D843" s="3"/>
@@ -25967,7 +26000,7 @@
       <c r="AA843" s="3"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="A844" s="31"/>
+      <c r="A844" s="29"/>
       <c r="B844" s="3"/>
       <c r="C844" s="3"/>
       <c r="D844" s="3"/>
@@ -25996,7 +26029,7 @@
       <c r="AA844" s="3"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="A845" s="31"/>
+      <c r="A845" s="29"/>
       <c r="B845" s="3"/>
       <c r="C845" s="3"/>
       <c r="D845" s="3"/>
@@ -26025,7 +26058,7 @@
       <c r="AA845" s="3"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="A846" s="31"/>
+      <c r="A846" s="29"/>
       <c r="B846" s="3"/>
       <c r="C846" s="3"/>
       <c r="D846" s="3"/>
@@ -26054,7 +26087,7 @@
       <c r="AA846" s="3"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="A847" s="31"/>
+      <c r="A847" s="29"/>
       <c r="B847" s="3"/>
       <c r="C847" s="3"/>
       <c r="D847" s="3"/>
@@ -26083,7 +26116,7 @@
       <c r="AA847" s="3"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="A848" s="31"/>
+      <c r="A848" s="29"/>
       <c r="B848" s="3"/>
       <c r="C848" s="3"/>
       <c r="D848" s="3"/>
@@ -26112,7 +26145,7 @@
       <c r="AA848" s="3"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="A849" s="31"/>
+      <c r="A849" s="29"/>
       <c r="B849" s="3"/>
       <c r="C849" s="3"/>
       <c r="D849" s="3"/>
@@ -26141,7 +26174,7 @@
       <c r="AA849" s="3"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="A850" s="31"/>
+      <c r="A850" s="29"/>
       <c r="B850" s="3"/>
       <c r="C850" s="3"/>
       <c r="D850" s="3"/>
@@ -26170,7 +26203,7 @@
       <c r="AA850" s="3"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="A851" s="31"/>
+      <c r="A851" s="29"/>
       <c r="B851" s="3"/>
       <c r="C851" s="3"/>
       <c r="D851" s="3"/>
@@ -26199,7 +26232,7 @@
       <c r="AA851" s="3"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="A852" s="31"/>
+      <c r="A852" s="29"/>
       <c r="B852" s="3"/>
       <c r="C852" s="3"/>
       <c r="D852" s="3"/>
@@ -26228,7 +26261,7 @@
       <c r="AA852" s="3"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="A853" s="31"/>
+      <c r="A853" s="29"/>
       <c r="B853" s="3"/>
       <c r="C853" s="3"/>
       <c r="D853" s="3"/>
@@ -26257,7 +26290,7 @@
       <c r="AA853" s="3"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="A854" s="31"/>
+      <c r="A854" s="29"/>
       <c r="B854" s="3"/>
       <c r="C854" s="3"/>
       <c r="D854" s="3"/>
@@ -26286,7 +26319,7 @@
       <c r="AA854" s="3"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="A855" s="31"/>
+      <c r="A855" s="29"/>
       <c r="B855" s="3"/>
       <c r="C855" s="3"/>
       <c r="D855" s="3"/>
@@ -26315,7 +26348,7 @@
       <c r="AA855" s="3"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="A856" s="31"/>
+      <c r="A856" s="29"/>
       <c r="B856" s="3"/>
       <c r="C856" s="3"/>
       <c r="D856" s="3"/>
@@ -26344,7 +26377,7 @@
       <c r="AA856" s="3"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="A857" s="31"/>
+      <c r="A857" s="29"/>
       <c r="B857" s="3"/>
       <c r="C857" s="3"/>
       <c r="D857" s="3"/>
@@ -26373,7 +26406,7 @@
       <c r="AA857" s="3"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="A858" s="31"/>
+      <c r="A858" s="29"/>
       <c r="B858" s="3"/>
       <c r="C858" s="3"/>
       <c r="D858" s="3"/>
@@ -26402,7 +26435,7 @@
       <c r="AA858" s="3"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="A859" s="31"/>
+      <c r="A859" s="29"/>
       <c r="B859" s="3"/>
       <c r="C859" s="3"/>
       <c r="D859" s="3"/>
@@ -26431,7 +26464,7 @@
       <c r="AA859" s="3"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="A860" s="31"/>
+      <c r="A860" s="29"/>
       <c r="B860" s="3"/>
       <c r="C860" s="3"/>
       <c r="D860" s="3"/>
@@ -26460,7 +26493,7 @@
       <c r="AA860" s="3"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="A861" s="31"/>
+      <c r="A861" s="29"/>
       <c r="B861" s="3"/>
       <c r="C861" s="3"/>
       <c r="D861" s="3"/>
@@ -26489,7 +26522,7 @@
       <c r="AA861" s="3"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="A862" s="31"/>
+      <c r="A862" s="29"/>
       <c r="B862" s="3"/>
       <c r="C862" s="3"/>
       <c r="D862" s="3"/>
@@ -26518,7 +26551,7 @@
       <c r="AA862" s="3"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="A863" s="31"/>
+      <c r="A863" s="29"/>
       <c r="B863" s="3"/>
       <c r="C863" s="3"/>
       <c r="D863" s="3"/>
@@ -26547,7 +26580,7 @@
       <c r="AA863" s="3"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="A864" s="31"/>
+      <c r="A864" s="29"/>
       <c r="B864" s="3"/>
       <c r="C864" s="3"/>
       <c r="D864" s="3"/>
@@ -26576,7 +26609,7 @@
       <c r="AA864" s="3"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="A865" s="31"/>
+      <c r="A865" s="29"/>
       <c r="B865" s="3"/>
       <c r="C865" s="3"/>
       <c r="D865" s="3"/>
@@ -26605,7 +26638,7 @@
       <c r="AA865" s="3"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="A866" s="31"/>
+      <c r="A866" s="29"/>
       <c r="B866" s="3"/>
       <c r="C866" s="3"/>
       <c r="D866" s="3"/>
@@ -26634,7 +26667,7 @@
       <c r="AA866" s="3"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="A867" s="31"/>
+      <c r="A867" s="29"/>
       <c r="B867" s="3"/>
       <c r="C867" s="3"/>
       <c r="D867" s="3"/>
@@ -26663,7 +26696,7 @@
       <c r="AA867" s="3"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="A868" s="31"/>
+      <c r="A868" s="29"/>
       <c r="B868" s="3"/>
       <c r="C868" s="3"/>
       <c r="D868" s="3"/>
@@ -26692,7 +26725,7 @@
       <c r="AA868" s="3"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="A869" s="31"/>
+      <c r="A869" s="29"/>
       <c r="B869" s="3"/>
       <c r="C869" s="3"/>
       <c r="D869" s="3"/>
@@ -26721,7 +26754,7 @@
       <c r="AA869" s="3"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="A870" s="31"/>
+      <c r="A870" s="29"/>
       <c r="B870" s="3"/>
       <c r="C870" s="3"/>
       <c r="D870" s="3"/>
@@ -26750,7 +26783,7 @@
       <c r="AA870" s="3"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="A871" s="31"/>
+      <c r="A871" s="29"/>
       <c r="B871" s="3"/>
       <c r="C871" s="3"/>
       <c r="D871" s="3"/>
@@ -26779,7 +26812,7 @@
       <c r="AA871" s="3"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="A872" s="31"/>
+      <c r="A872" s="29"/>
       <c r="B872" s="3"/>
       <c r="C872" s="3"/>
       <c r="D872" s="3"/>
@@ -26808,7 +26841,7 @@
       <c r="AA872" s="3"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="A873" s="31"/>
+      <c r="A873" s="29"/>
       <c r="B873" s="3"/>
       <c r="C873" s="3"/>
       <c r="D873" s="3"/>
@@ -26837,7 +26870,7 @@
       <c r="AA873" s="3"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="A874" s="31"/>
+      <c r="A874" s="29"/>
       <c r="B874" s="3"/>
       <c r="C874" s="3"/>
       <c r="D874" s="3"/>
@@ -26866,7 +26899,7 @@
       <c r="AA874" s="3"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="A875" s="31"/>
+      <c r="A875" s="29"/>
       <c r="B875" s="3"/>
       <c r="C875" s="3"/>
       <c r="D875" s="3"/>
@@ -26895,7 +26928,7 @@
       <c r="AA875" s="3"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="A876" s="31"/>
+      <c r="A876" s="29"/>
       <c r="B876" s="3"/>
       <c r="C876" s="3"/>
       <c r="D876" s="3"/>
@@ -26924,7 +26957,7 @@
       <c r="AA876" s="3"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="A877" s="31"/>
+      <c r="A877" s="29"/>
       <c r="B877" s="3"/>
       <c r="C877" s="3"/>
       <c r="D877" s="3"/>
@@ -26953,7 +26986,7 @@
       <c r="AA877" s="3"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="A878" s="31"/>
+      <c r="A878" s="29"/>
       <c r="B878" s="3"/>
       <c r="C878" s="3"/>
       <c r="D878" s="3"/>
@@ -26982,7 +27015,7 @@
       <c r="AA878" s="3"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="A879" s="31"/>
+      <c r="A879" s="29"/>
       <c r="B879" s="3"/>
       <c r="C879" s="3"/>
       <c r="D879" s="3"/>
@@ -27011,7 +27044,7 @@
       <c r="AA879" s="3"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="A880" s="31"/>
+      <c r="A880" s="29"/>
       <c r="B880" s="3"/>
       <c r="C880" s="3"/>
       <c r="D880" s="3"/>
@@ -27040,7 +27073,7 @@
       <c r="AA880" s="3"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="A881" s="31"/>
+      <c r="A881" s="29"/>
       <c r="B881" s="3"/>
       <c r="C881" s="3"/>
       <c r="D881" s="3"/>
@@ -27069,7 +27102,7 @@
       <c r="AA881" s="3"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="A882" s="31"/>
+      <c r="A882" s="29"/>
       <c r="B882" s="3"/>
       <c r="C882" s="3"/>
       <c r="D882" s="3"/>
@@ -27098,7 +27131,7 @@
       <c r="AA882" s="3"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="A883" s="31"/>
+      <c r="A883" s="29"/>
       <c r="B883" s="3"/>
       <c r="C883" s="3"/>
       <c r="D883" s="3"/>
@@ -27127,7 +27160,7 @@
       <c r="AA883" s="3"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="A884" s="31"/>
+      <c r="A884" s="29"/>
       <c r="B884" s="3"/>
       <c r="C884" s="3"/>
       <c r="D884" s="3"/>
@@ -27156,7 +27189,7 @@
       <c r="AA884" s="3"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="A885" s="31"/>
+      <c r="A885" s="29"/>
       <c r="B885" s="3"/>
       <c r="C885" s="3"/>
       <c r="D885" s="3"/>
@@ -27185,7 +27218,7 @@
       <c r="AA885" s="3"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="A886" s="31"/>
+      <c r="A886" s="29"/>
       <c r="B886" s="3"/>
       <c r="C886" s="3"/>
       <c r="D886" s="3"/>
@@ -27214,7 +27247,7 @@
       <c r="AA886" s="3"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="A887" s="31"/>
+      <c r="A887" s="29"/>
       <c r="B887" s="3"/>
       <c r="C887" s="3"/>
       <c r="D887" s="3"/>
@@ -27243,7 +27276,7 @@
       <c r="AA887" s="3"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="A888" s="31"/>
+      <c r="A888" s="29"/>
       <c r="B888" s="3"/>
       <c r="C888" s="3"/>
       <c r="D888" s="3"/>
@@ -27272,7 +27305,7 @@
       <c r="AA888" s="3"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="A889" s="31"/>
+      <c r="A889" s="29"/>
       <c r="B889" s="3"/>
       <c r="C889" s="3"/>
       <c r="D889" s="3"/>
@@ -27301,7 +27334,7 @@
       <c r="AA889" s="3"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="A890" s="31"/>
+      <c r="A890" s="29"/>
       <c r="B890" s="3"/>
       <c r="C890" s="3"/>
       <c r="D890" s="3"/>
@@ -27330,7 +27363,7 @@
       <c r="AA890" s="3"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="A891" s="31"/>
+      <c r="A891" s="29"/>
       <c r="B891" s="3"/>
       <c r="C891" s="3"/>
       <c r="D891" s="3"/>
@@ -27359,7 +27392,7 @@
       <c r="AA891" s="3"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="A892" s="31"/>
+      <c r="A892" s="29"/>
       <c r="B892" s="3"/>
       <c r="C892" s="3"/>
       <c r="D892" s="3"/>
@@ -27388,7 +27421,7 @@
       <c r="AA892" s="3"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="A893" s="31"/>
+      <c r="A893" s="29"/>
       <c r="B893" s="3"/>
       <c r="C893" s="3"/>
       <c r="D893" s="3"/>
@@ -27417,7 +27450,7 @@
       <c r="AA893" s="3"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="A894" s="31"/>
+      <c r="A894" s="29"/>
       <c r="B894" s="3"/>
       <c r="C894" s="3"/>
       <c r="D894" s="3"/>
@@ -27446,7 +27479,7 @@
       <c r="AA894" s="3"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="A895" s="31"/>
+      <c r="A895" s="29"/>
       <c r="B895" s="3"/>
       <c r="C895" s="3"/>
       <c r="D895" s="3"/>
@@ -27475,7 +27508,7 @@
       <c r="AA895" s="3"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="A896" s="31"/>
+      <c r="A896" s="29"/>
       <c r="B896" s="3"/>
       <c r="C896" s="3"/>
       <c r="D896" s="3"/>
@@ -27504,7 +27537,7 @@
       <c r="AA896" s="3"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="A897" s="31"/>
+      <c r="A897" s="29"/>
       <c r="B897" s="3"/>
       <c r="C897" s="3"/>
       <c r="D897" s="3"/>
@@ -27533,7 +27566,7 @@
       <c r="AA897" s="3"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="A898" s="31"/>
+      <c r="A898" s="29"/>
       <c r="B898" s="3"/>
       <c r="C898" s="3"/>
       <c r="D898" s="3"/>
@@ -27562,7 +27595,7 @@
       <c r="AA898" s="3"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="A899" s="31"/>
+      <c r="A899" s="29"/>
       <c r="B899" s="3"/>
       <c r="C899" s="3"/>
       <c r="D899" s="3"/>
@@ -27591,7 +27624,7 @@
       <c r="AA899" s="3"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="A900" s="31"/>
+      <c r="A900" s="29"/>
       <c r="B900" s="3"/>
       <c r="C900" s="3"/>
       <c r="D900" s="3"/>
@@ -27620,7 +27653,7 @@
       <c r="AA900" s="3"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="A901" s="31"/>
+      <c r="A901" s="29"/>
       <c r="B901" s="3"/>
       <c r="C901" s="3"/>
       <c r="D901" s="3"/>
@@ -27649,7 +27682,7 @@
       <c r="AA901" s="3"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="A902" s="31"/>
+      <c r="A902" s="29"/>
       <c r="B902" s="3"/>
       <c r="C902" s="3"/>
       <c r="D902" s="3"/>
@@ -27678,7 +27711,7 @@
       <c r="AA902" s="3"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="A903" s="31"/>
+      <c r="A903" s="29"/>
       <c r="B903" s="3"/>
       <c r="C903" s="3"/>
       <c r="D903" s="3"/>
@@ -27707,7 +27740,7 @@
       <c r="AA903" s="3"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="A904" s="31"/>
+      <c r="A904" s="29"/>
       <c r="B904" s="3"/>
       <c r="C904" s="3"/>
       <c r="D904" s="3"/>
@@ -27736,7 +27769,7 @@
       <c r="AA904" s="3"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="A905" s="31"/>
+      <c r="A905" s="29"/>
       <c r="B905" s="3"/>
       <c r="C905" s="3"/>
       <c r="D905" s="3"/>
@@ -27765,7 +27798,7 @@
       <c r="AA905" s="3"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="A906" s="31"/>
+      <c r="A906" s="29"/>
       <c r="B906" s="3"/>
       <c r="C906" s="3"/>
       <c r="D906" s="3"/>
@@ -27794,7 +27827,7 @@
       <c r="AA906" s="3"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="A907" s="31"/>
+      <c r="A907" s="29"/>
       <c r="B907" s="3"/>
       <c r="C907" s="3"/>
       <c r="D907" s="3"/>
@@ -27823,7 +27856,7 @@
       <c r="AA907" s="3"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="A908" s="31"/>
+      <c r="A908" s="29"/>
       <c r="B908" s="3"/>
       <c r="C908" s="3"/>
       <c r="D908" s="3"/>
@@ -27852,7 +27885,7 @@
       <c r="AA908" s="3"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="A909" s="31"/>
+      <c r="A909" s="29"/>
       <c r="B909" s="3"/>
       <c r="C909" s="3"/>
       <c r="D909" s="3"/>
@@ -27881,7 +27914,7 @@
       <c r="AA909" s="3"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="A910" s="31"/>
+      <c r="A910" s="29"/>
       <c r="B910" s="3"/>
       <c r="C910" s="3"/>
       <c r="D910" s="3"/>
@@ -27910,7 +27943,7 @@
       <c r="AA910" s="3"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="A911" s="31"/>
+      <c r="A911" s="29"/>
       <c r="B911" s="3"/>
       <c r="C911" s="3"/>
       <c r="D911" s="3"/>
@@ -27939,7 +27972,7 @@
       <c r="AA911" s="3"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="A912" s="31"/>
+      <c r="A912" s="29"/>
       <c r="B912" s="3"/>
       <c r="C912" s="3"/>
       <c r="D912" s="3"/>
@@ -27968,7 +28001,7 @@
       <c r="AA912" s="3"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="A913" s="31"/>
+      <c r="A913" s="29"/>
       <c r="B913" s="3"/>
       <c r="C913" s="3"/>
       <c r="D913" s="3"/>
@@ -27997,7 +28030,7 @@
       <c r="AA913" s="3"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="A914" s="31"/>
+      <c r="A914" s="29"/>
       <c r="B914" s="3"/>
       <c r="C914" s="3"/>
       <c r="D914" s="3"/>
@@ -28026,7 +28059,7 @@
       <c r="AA914" s="3"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="A915" s="31"/>
+      <c r="A915" s="29"/>
       <c r="B915" s="3"/>
       <c r="C915" s="3"/>
       <c r="D915" s="3"/>
@@ -28055,7 +28088,7 @@
       <c r="AA915" s="3"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="A916" s="31"/>
+      <c r="A916" s="29"/>
       <c r="B916" s="3"/>
       <c r="C916" s="3"/>
       <c r="D916" s="3"/>
@@ -28084,7 +28117,7 @@
       <c r="AA916" s="3"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="A917" s="31"/>
+      <c r="A917" s="29"/>
       <c r="B917" s="3"/>
       <c r="C917" s="3"/>
       <c r="D917" s="3"/>
@@ -28113,7 +28146,7 @@
       <c r="AA917" s="3"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="A918" s="31"/>
+      <c r="A918" s="29"/>
       <c r="B918" s="3"/>
       <c r="C918" s="3"/>
       <c r="D918" s="3"/>
@@ -28142,7 +28175,7 @@
       <c r="AA918" s="3"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="A919" s="31"/>
+      <c r="A919" s="29"/>
       <c r="B919" s="3"/>
       <c r="C919" s="3"/>
       <c r="D919" s="3"/>
@@ -28171,7 +28204,7 @@
       <c r="AA919" s="3"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="A920" s="31"/>
+      <c r="A920" s="29"/>
       <c r="B920" s="3"/>
       <c r="C920" s="3"/>
       <c r="D920" s="3"/>
@@ -28200,7 +28233,7 @@
       <c r="AA920" s="3"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="A921" s="31"/>
+      <c r="A921" s="29"/>
       <c r="B921" s="3"/>
       <c r="C921" s="3"/>
       <c r="D921" s="3"/>
@@ -28229,7 +28262,7 @@
       <c r="AA921" s="3"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="A922" s="31"/>
+      <c r="A922" s="29"/>
       <c r="B922" s="3"/>
       <c r="C922" s="3"/>
       <c r="D922" s="3"/>
@@ -28258,7 +28291,7 @@
       <c r="AA922" s="3"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="A923" s="31"/>
+      <c r="A923" s="29"/>
       <c r="B923" s="3"/>
       <c r="C923" s="3"/>
       <c r="D923" s="3"/>
@@ -28287,7 +28320,7 @@
       <c r="AA923" s="3"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="A924" s="31"/>
+      <c r="A924" s="29"/>
       <c r="B924" s="3"/>
       <c r="C924" s="3"/>
       <c r="D924" s="3"/>
@@ -28316,7 +28349,7 @@
       <c r="AA924" s="3"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="A925" s="31"/>
+      <c r="A925" s="29"/>
       <c r="B925" s="3"/>
       <c r="C925" s="3"/>
       <c r="D925" s="3"/>
@@ -28345,7 +28378,7 @@
       <c r="AA925" s="3"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="A926" s="31"/>
+      <c r="A926" s="29"/>
       <c r="B926" s="3"/>
       <c r="C926" s="3"/>
       <c r="D926" s="3"/>
@@ -28374,7 +28407,7 @@
       <c r="AA926" s="3"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="A927" s="31"/>
+      <c r="A927" s="29"/>
       <c r="B927" s="3"/>
       <c r="C927" s="3"/>
       <c r="D927" s="3"/>
@@ -28403,7 +28436,7 @@
       <c r="AA927" s="3"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="A928" s="31"/>
+      <c r="A928" s="29"/>
       <c r="B928" s="3"/>
       <c r="C928" s="3"/>
       <c r="D928" s="3"/>
@@ -28432,7 +28465,7 @@
       <c r="AA928" s="3"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="A929" s="31"/>
+      <c r="A929" s="29"/>
       <c r="B929" s="3"/>
       <c r="C929" s="3"/>
       <c r="D929" s="3"/>
@@ -28461,7 +28494,7 @@
       <c r="AA929" s="3"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="A930" s="31"/>
+      <c r="A930" s="29"/>
       <c r="B930" s="3"/>
       <c r="C930" s="3"/>
       <c r="D930" s="3"/>
@@ -28490,7 +28523,7 @@
       <c r="AA930" s="3"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="A931" s="31"/>
+      <c r="A931" s="29"/>
       <c r="B931" s="3"/>
       <c r="C931" s="3"/>
       <c r="D931" s="3"/>
@@ -28519,7 +28552,7 @@
       <c r="AA931" s="3"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="A932" s="31"/>
+      <c r="A932" s="29"/>
       <c r="B932" s="3"/>
       <c r="C932" s="3"/>
       <c r="D932" s="3"/>
@@ -28548,7 +28581,7 @@
       <c r="AA932" s="3"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="A933" s="31"/>
+      <c r="A933" s="29"/>
       <c r="B933" s="3"/>
       <c r="C933" s="3"/>
       <c r="D933" s="3"/>
@@ -28577,7 +28610,7 @@
       <c r="AA933" s="3"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="A934" s="31"/>
+      <c r="A934" s="29"/>
       <c r="B934" s="3"/>
       <c r="C934" s="3"/>
       <c r="D934" s="3"/>
@@ -28606,7 +28639,7 @@
       <c r="AA934" s="3"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="A935" s="31"/>
+      <c r="A935" s="29"/>
       <c r="B935" s="3"/>
       <c r="C935" s="3"/>
       <c r="D935" s="3"/>
@@ -28635,7 +28668,7 @@
       <c r="AA935" s="3"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="A936" s="31"/>
+      <c r="A936" s="29"/>
       <c r="B936" s="3"/>
       <c r="C936" s="3"/>
       <c r="D936" s="3"/>
@@ -28664,7 +28697,7 @@
       <c r="AA936" s="3"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="A937" s="31"/>
+      <c r="A937" s="29"/>
       <c r="B937" s="3"/>
       <c r="C937" s="3"/>
       <c r="D937" s="3"/>
@@ -28693,7 +28726,7 @@
       <c r="AA937" s="3"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="A938" s="31"/>
+      <c r="A938" s="29"/>
       <c r="B938" s="3"/>
       <c r="C938" s="3"/>
       <c r="D938" s="3"/>
@@ -28722,7 +28755,7 @@
       <c r="AA938" s="3"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="A939" s="31"/>
+      <c r="A939" s="29"/>
       <c r="B939" s="3"/>
       <c r="C939" s="3"/>
       <c r="D939" s="3"/>
@@ -28751,7 +28784,7 @@
       <c r="AA939" s="3"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="A940" s="31"/>
+      <c r="A940" s="29"/>
       <c r="B940" s="3"/>
       <c r="C940" s="3"/>
       <c r="D940" s="3"/>
@@ -28780,7 +28813,7 @@
       <c r="AA940" s="3"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="A941" s="31"/>
+      <c r="A941" s="29"/>
       <c r="B941" s="3"/>
       <c r="C941" s="3"/>
       <c r="D941" s="3"/>
@@ -28809,7 +28842,7 @@
       <c r="AA941" s="3"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="A942" s="31"/>
+      <c r="A942" s="29"/>
       <c r="B942" s="3"/>
       <c r="C942" s="3"/>
       <c r="D942" s="3"/>
@@ -28838,7 +28871,7 @@
       <c r="AA942" s="3"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="A943" s="31"/>
+      <c r="A943" s="29"/>
       <c r="B943" s="3"/>
       <c r="C943" s="3"/>
       <c r="D943" s="3"/>
@@ -28867,7 +28900,7 @@
       <c r="AA943" s="3"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="A944" s="31"/>
+      <c r="A944" s="29"/>
       <c r="B944" s="3"/>
       <c r="C944" s="3"/>
       <c r="D944" s="3"/>
@@ -28896,7 +28929,7 @@
       <c r="AA944" s="3"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="A945" s="31"/>
+      <c r="A945" s="29"/>
       <c r="B945" s="3"/>
       <c r="C945" s="3"/>
       <c r="D945" s="3"/>
@@ -28925,7 +28958,7 @@
       <c r="AA945" s="3"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="A946" s="31"/>
+      <c r="A946" s="29"/>
       <c r="B946" s="3"/>
       <c r="C946" s="3"/>
       <c r="D946" s="3"/>
@@ -28954,7 +28987,7 @@
       <c r="AA946" s="3"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="A947" s="31"/>
+      <c r="A947" s="29"/>
       <c r="B947" s="3"/>
       <c r="C947" s="3"/>
       <c r="D947" s="3"/>
@@ -28983,7 +29016,7 @@
       <c r="AA947" s="3"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="A948" s="31"/>
+      <c r="A948" s="29"/>
       <c r="B948" s="3"/>
       <c r="C948" s="3"/>
       <c r="D948" s="3"/>
@@ -29012,7 +29045,7 @@
       <c r="AA948" s="3"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="A949" s="31"/>
+      <c r="A949" s="29"/>
       <c r="B949" s="3"/>
       <c r="C949" s="3"/>
       <c r="D949" s="3"/>
@@ -29041,7 +29074,7 @@
       <c r="AA949" s="3"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="A950" s="31"/>
+      <c r="A950" s="29"/>
       <c r="B950" s="3"/>
       <c r="C950" s="3"/>
       <c r="D950" s="3"/>
@@ -29070,7 +29103,7 @@
       <c r="AA950" s="3"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="A951" s="31"/>
+      <c r="A951" s="29"/>
       <c r="B951" s="3"/>
       <c r="C951" s="3"/>
       <c r="D951" s="3"/>
@@ -29099,7 +29132,7 @@
       <c r="AA951" s="3"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="A952" s="31"/>
+      <c r="A952" s="29"/>
       <c r="B952" s="3"/>
       <c r="C952" s="3"/>
       <c r="D952" s="3"/>
@@ -29128,7 +29161,7 @@
       <c r="AA952" s="3"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="A953" s="31"/>
+      <c r="A953" s="29"/>
       <c r="B953" s="3"/>
       <c r="C953" s="3"/>
       <c r="D953" s="3"/>
@@ -29157,7 +29190,7 @@
       <c r="AA953" s="3"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="A954" s="31"/>
+      <c r="A954" s="29"/>
       <c r="B954" s="3"/>
       <c r="C954" s="3"/>
       <c r="D954" s="3"/>
@@ -29186,7 +29219,7 @@
       <c r="AA954" s="3"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="A955" s="31"/>
+      <c r="A955" s="29"/>
       <c r="B955" s="3"/>
       <c r="C955" s="3"/>
       <c r="D955" s="3"/>
@@ -29215,7 +29248,7 @@
       <c r="AA955" s="3"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="A956" s="31"/>
+      <c r="A956" s="29"/>
       <c r="B956" s="3"/>
       <c r="C956" s="3"/>
       <c r="D956" s="3"/>
@@ -29244,7 +29277,7 @@
       <c r="AA956" s="3"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="A957" s="31"/>
+      <c r="A957" s="29"/>
       <c r="B957" s="3"/>
       <c r="C957" s="3"/>
       <c r="D957" s="3"/>
@@ -29273,7 +29306,7 @@
       <c r="AA957" s="3"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="A958" s="31"/>
+      <c r="A958" s="29"/>
       <c r="B958" s="3"/>
       <c r="C958" s="3"/>
       <c r="D958" s="3"/>
@@ -29302,7 +29335,7 @@
       <c r="AA958" s="3"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="A959" s="31"/>
+      <c r="A959" s="29"/>
       <c r="B959" s="3"/>
       <c r="C959" s="3"/>
       <c r="D959" s="3"/>
@@ -29331,7 +29364,7 @@
       <c r="AA959" s="3"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="A960" s="31"/>
+      <c r="A960" s="29"/>
       <c r="B960" s="3"/>
       <c r="C960" s="3"/>
       <c r="D960" s="3"/>
@@ -29360,7 +29393,7 @@
       <c r="AA960" s="3"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="A961" s="31"/>
+      <c r="A961" s="29"/>
       <c r="B961" s="3"/>
       <c r="C961" s="3"/>
       <c r="D961" s="3"/>
@@ -29389,7 +29422,7 @@
       <c r="AA961" s="3"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="A962" s="31"/>
+      <c r="A962" s="29"/>
       <c r="B962" s="3"/>
       <c r="C962" s="3"/>
       <c r="D962" s="3"/>
@@ -29418,7 +29451,7 @@
       <c r="AA962" s="3"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="A963" s="31"/>
+      <c r="A963" s="29"/>
       <c r="B963" s="3"/>
       <c r="C963" s="3"/>
       <c r="D963" s="3"/>
@@ -29447,7 +29480,7 @@
       <c r="AA963" s="3"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="A964" s="31"/>
+      <c r="A964" s="29"/>
       <c r="B964" s="3"/>
       <c r="C964" s="3"/>
       <c r="D964" s="3"/>
@@ -29476,7 +29509,7 @@
       <c r="AA964" s="3"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="A965" s="31"/>
+      <c r="A965" s="29"/>
       <c r="B965" s="3"/>
       <c r="C965" s="3"/>
       <c r="D965" s="3"/>
@@ -29505,7 +29538,7 @@
       <c r="AA965" s="3"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="A966" s="31"/>
+      <c r="A966" s="29"/>
       <c r="B966" s="3"/>
       <c r="C966" s="3"/>
       <c r="D966" s="3"/>
@@ -29534,7 +29567,7 @@
       <c r="AA966" s="3"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="A967" s="31"/>
+      <c r="A967" s="29"/>
       <c r="B967" s="3"/>
       <c r="C967" s="3"/>
       <c r="D967" s="3"/>
@@ -29563,7 +29596,7 @@
       <c r="AA967" s="3"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="A968" s="31"/>
+      <c r="A968" s="29"/>
       <c r="B968" s="3"/>
       <c r="C968" s="3"/>
       <c r="D968" s="3"/>

--- a/Documents/SWP391-AppDevProject_Backlog.xlsx
+++ b/Documents/SWP391-AppDevProject_Backlog.xlsx
@@ -235,7 +235,7 @@
     <t>View account list</t>
   </si>
   <si>
-    <t>Accept user request (hay là censor user requests )</t>
+    <t>Process user requests</t>
   </si>
   <si>
     <t>Iteration 3</t>
